--- a/AAII_Financials/Quarterly/GGTHF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GGTHF_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>GGTHF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,81 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E7" s="2">
         <v>43799</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43708</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43616</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43524</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43434</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43343</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43251</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43159</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43069</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42978</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42886</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42794</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42704</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,8 +785,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -801,11 +808,11 @@
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
@@ -828,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,11 +858,11 @@
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
@@ -875,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1026,8 +1046,8 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1067,14 +1090,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,29 +1124,30 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
       <c r="F17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
@@ -1131,10 +1158,10 @@
         <v>100</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
@@ -1143,10 +1170,13 @@
         <v>100</v>
       </c>
       <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,20 +1184,20 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
       </c>
       <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
-        <v>-100</v>
-      </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
@@ -1178,10 +1208,10 @@
         <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
@@ -1190,10 +1220,13 @@
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1220,20 +1254,20 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1256,10 +1290,13 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1267,7 +1304,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F21" s="3">
         <v>-100</v>
@@ -1276,11 +1313,11 @@
         <v>-100</v>
       </c>
       <c r="H21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
-        <v>-100</v>
-      </c>
       <c r="J21" s="3">
         <v>-100</v>
       </c>
@@ -1291,10 +1328,10 @@
         <v>-100</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3">
         <v>-100</v>
@@ -1303,10 +1340,13 @@
         <v>-100</v>
       </c>
       <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,17 +1392,20 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
-        <v>-100</v>
-      </c>
       <c r="F23" s="3">
         <v>-100</v>
       </c>
@@ -1370,11 +1413,11 @@
         <v>-100</v>
       </c>
       <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
       <c r="J23" s="3">
         <v>-100</v>
       </c>
@@ -1385,10 +1428,10 @@
         <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
@@ -1397,10 +1440,13 @@
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,17 +1542,20 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
-        <v>-100</v>
-      </c>
       <c r="F26" s="3">
         <v>-100</v>
       </c>
@@ -1511,11 +1563,11 @@
         <v>-100</v>
       </c>
       <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
       <c r="J26" s="3">
         <v>-100</v>
       </c>
@@ -1526,10 +1578,10 @@
         <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
@@ -1538,19 +1590,22 @@
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
-        <v>-100</v>
-      </c>
       <c r="F27" s="3">
         <v>-100</v>
       </c>
@@ -1558,11 +1613,11 @@
         <v>-100</v>
       </c>
       <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
       <c r="J27" s="3">
         <v>-100</v>
       </c>
@@ -1573,10 +1628,10 @@
         <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
@@ -1585,10 +1640,13 @@
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1784,20 +1854,20 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1820,19 +1890,22 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
-        <v>-100</v>
-      </c>
       <c r="F33" s="3">
         <v>-100</v>
       </c>
@@ -1840,11 +1913,11 @@
         <v>-100</v>
       </c>
       <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
       <c r="J33" s="3">
         <v>-100</v>
       </c>
@@ -1855,10 +1928,10 @@
         <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
@@ -1867,10 +1940,13 @@
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,17 +1992,20 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
-        <v>-100</v>
-      </c>
       <c r="F35" s="3">
         <v>-100</v>
       </c>
@@ -1934,11 +2013,11 @@
         <v>-100</v>
       </c>
       <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
       <c r="J35" s="3">
         <v>-100</v>
       </c>
@@ -1949,10 +2028,10 @@
         <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
@@ -1961,62 +2040,68 @@
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E38" s="2">
         <v>43799</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43708</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43616</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43524</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43434</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43343</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43251</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43159</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43069</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42978</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42886</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42794</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42704</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,8 +2139,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2062,28 +2149,28 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
-        <v>600</v>
-      </c>
       <c r="G41" s="3">
+        <v>500</v>
+      </c>
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
-        <v>2000</v>
-      </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
@@ -2092,33 +2179,36 @@
         <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E42" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F42" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G42" s="3">
-        <v>800</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
+        <v>700</v>
+      </c>
+      <c r="H42" s="3">
+        <v>700</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>4</v>
@@ -2126,8 +2216,8 @@
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2147,19 +2237,22 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2194,8 +2287,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,13 +2337,16 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2288,28 +2387,31 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>800</v>
+      </c>
+      <c r="E46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
-        <v>1100</v>
-      </c>
       <c r="F46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G46" s="3">
         <v>1300</v>
       </c>
-      <c r="G46" s="3">
-        <v>1500</v>
-      </c>
       <c r="H46" s="3">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>1900</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
@@ -2335,8 +2437,11 @@
       <c r="Q46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,19 +2487,22 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E48" s="3">
         <v>500</v>
       </c>
       <c r="F48" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
@@ -2403,34 +2511,37 @@
         <v>200</v>
       </c>
       <c r="I48" s="3">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>1900</v>
       </c>
       <c r="K48" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="L48" s="3">
         <v>2000</v>
       </c>
       <c r="M48" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="N48" s="3">
         <v>2100</v>
       </c>
       <c r="O48" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="P48" s="3">
         <v>2200</v>
       </c>
       <c r="Q48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R48" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,31 +2787,34 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F54" s="3">
         <v>1500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H54" s="3">
         <v>1600</v>
       </c>
-      <c r="F54" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H54" s="3">
-        <v>2200</v>
-      </c>
       <c r="I54" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="J54" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="K54" s="3">
         <v>2100</v>
@@ -2700,19 +2826,22 @@
         <v>2100</v>
       </c>
       <c r="N54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O54" s="3">
         <v>2200</v>
-      </c>
-      <c r="O54" s="3">
-        <v>2300</v>
       </c>
       <c r="P54" s="3">
         <v>2300</v>
       </c>
       <c r="Q54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="R54" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,8 +2879,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2758,20 +2889,20 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
-        <v>100</v>
-      </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
@@ -2796,8 +2927,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2843,8 +2977,11 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2864,7 +3001,7 @@
         <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>500</v>
@@ -2879,19 +3016,22 @@
         <v>500</v>
       </c>
       <c r="N59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O59" s="3">
         <v>400</v>
       </c>
       <c r="P59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2908,16 +3048,16 @@
         <v>100</v>
       </c>
       <c r="H60" s="3">
+        <v>100</v>
+      </c>
+      <c r="I60" s="3">
         <v>500</v>
-      </c>
-      <c r="I60" s="3">
-        <v>600</v>
       </c>
       <c r="J60" s="3">
         <v>600</v>
       </c>
       <c r="K60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L60" s="3">
         <v>500</v>
@@ -2926,7 +3066,7 @@
         <v>500</v>
       </c>
       <c r="N60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O60" s="3">
         <v>400</v>
@@ -2935,10 +3075,13 @@
         <v>400</v>
       </c>
       <c r="Q60" s="3">
+        <v>400</v>
+      </c>
+      <c r="R60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,8 +3127,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3010,17 +3156,17 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O62" s="3">
         <v>100</v>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,8 +3327,11 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3190,16 +3348,16 @@
         <v>100</v>
       </c>
       <c r="H66" s="3">
+        <v>100</v>
+      </c>
+      <c r="I66" s="3">
         <v>500</v>
-      </c>
-      <c r="I66" s="3">
-        <v>600</v>
       </c>
       <c r="J66" s="3">
         <v>600</v>
       </c>
       <c r="K66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L66" s="3">
         <v>500</v>
@@ -3211,7 +3369,7 @@
         <v>500</v>
       </c>
       <c r="O66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P66" s="3">
         <v>400</v>
@@ -3219,8 +3377,11 @@
       <c r="Q66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-18200</v>
+        <v>-17700</v>
       </c>
       <c r="E72" s="3">
-        <v>-18200</v>
+        <v>-17600</v>
       </c>
       <c r="F72" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-18100</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-18000</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-18000</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-18200</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-18100</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-17800</v>
       </c>
       <c r="L72" s="3">
         <v>-17800</v>
       </c>
       <c r="M72" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="N72" s="3">
         <v>-17700</v>
       </c>
       <c r="O72" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="P72" s="3">
         <v>-18200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F76" s="3">
         <v>1400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I76" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J76" s="3">
         <v>1400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="K76" s="3">
         <v>1500</v>
-      </c>
-      <c r="G76" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H76" s="3">
-        <v>1600</v>
-      </c>
-      <c r="I76" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J76" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K76" s="3">
-        <v>1600</v>
       </c>
       <c r="L76" s="3">
         <v>1600</v>
       </c>
       <c r="M76" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="N76" s="3">
         <v>1700</v>
       </c>
       <c r="O76" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P76" s="3">
         <v>1800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,69 +3897,75 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E80" s="2">
         <v>43799</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43708</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43616</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43524</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43434</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43343</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43251</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43159</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43069</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42978</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42886</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42794</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42704</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
-        <v>-100</v>
-      </c>
       <c r="F81" s="3">
         <v>-100</v>
       </c>
@@ -3778,11 +3973,11 @@
         <v>-100</v>
       </c>
       <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
       <c r="J81" s="3">
         <v>-100</v>
       </c>
@@ -3793,10 +3988,10 @@
         <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
@@ -3805,10 +4000,13 @@
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4322,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4117,28 +4334,28 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -4153,10 +4370,13 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,20 +4394,21 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -4207,22 +4428,25 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q91" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>2200</v>
+        <v>-700</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="J94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4616,8 +4862,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
-        <v>-100</v>
-      </c>
       <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-1300</v>
       </c>
-      <c r="H102" s="3">
-        <v>2000</v>
-      </c>
       <c r="I102" s="3">
-        <v>-100</v>
+        <v>1900</v>
       </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GGTHF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GGTHF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>GGTHF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E7" s="2">
         <v>43890</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43799</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43708</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43616</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43524</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43434</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43343</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43251</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43159</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43069</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42978</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42886</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42794</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42704</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -811,11 +818,11 @@
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -861,11 +871,11 @@
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1049,8 +1069,8 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1093,14 +1116,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1134,23 +1161,23 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
       <c r="K17" s="3">
         <v>100</v>
       </c>
@@ -1161,10 +1188,10 @@
         <v>100</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
@@ -1173,10 +1200,13 @@
         <v>100</v>
       </c>
       <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,23 +1214,23 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
-        <v>-100</v>
-      </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
@@ -1211,10 +1241,10 @@
         <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
@@ -1223,10 +1253,13 @@
         <v>-100</v>
       </c>
       <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1257,20 +1291,20 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1293,10 +1327,13 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,11 +1341,11 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
-        <v>-100</v>
-      </c>
       <c r="G21" s="3">
         <v>-100</v>
       </c>
@@ -1316,11 +1353,11 @@
         <v>-100</v>
       </c>
       <c r="I21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
-        <v>-100</v>
-      </c>
       <c r="K21" s="3">
         <v>-100</v>
       </c>
@@ -1331,10 +1368,10 @@
         <v>-100</v>
       </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3">
         <v>-100</v>
@@ -1343,10 +1380,13 @@
         <v>-100</v>
       </c>
       <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,8 +1435,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1404,11 +1447,11 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
-        <v>-100</v>
-      </c>
       <c r="G23" s="3">
         <v>-100</v>
       </c>
@@ -1416,11 +1459,11 @@
         <v>-100</v>
       </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
-        <v>-100</v>
-      </c>
       <c r="K23" s="3">
         <v>-100</v>
       </c>
@@ -1431,10 +1474,10 @@
         <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
@@ -1443,10 +1486,13 @@
         <v>-100</v>
       </c>
       <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1554,11 +1606,11 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
-        <v>-100</v>
-      </c>
       <c r="G26" s="3">
         <v>-100</v>
       </c>
@@ -1566,11 +1618,11 @@
         <v>-100</v>
       </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
-        <v>-100</v>
-      </c>
       <c r="K26" s="3">
         <v>-100</v>
       </c>
@@ -1581,10 +1633,10 @@
         <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
@@ -1593,10 +1645,13 @@
         <v>-100</v>
       </c>
       <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1604,11 +1659,11 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
-        <v>-100</v>
-      </c>
       <c r="G27" s="3">
         <v>-100</v>
       </c>
@@ -1616,11 +1671,11 @@
         <v>-100</v>
       </c>
       <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
-        <v>-100</v>
-      </c>
       <c r="K27" s="3">
         <v>-100</v>
       </c>
@@ -1631,10 +1686,10 @@
         <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
@@ -1643,10 +1698,13 @@
         <v>-100</v>
       </c>
       <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1857,20 +1927,20 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1893,10 +1963,13 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1904,11 +1977,11 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
-        <v>-100</v>
-      </c>
       <c r="G33" s="3">
         <v>-100</v>
       </c>
@@ -1916,11 +1989,11 @@
         <v>-100</v>
       </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
       <c r="K33" s="3">
         <v>-100</v>
       </c>
@@ -1931,10 +2004,10 @@
         <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
@@ -1943,10 +2016,13 @@
         <v>-100</v>
       </c>
       <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2004,11 +2083,11 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
-        <v>-100</v>
-      </c>
       <c r="G35" s="3">
         <v>-100</v>
       </c>
@@ -2016,11 +2095,11 @@
         <v>-100</v>
       </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
       <c r="K35" s="3">
         <v>-100</v>
       </c>
@@ -2031,10 +2110,10 @@
         <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
@@ -2043,65 +2122,71 @@
         <v>-100</v>
       </c>
       <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E38" s="2">
         <v>43890</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43799</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43708</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43616</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43524</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43434</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43343</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43251</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43159</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43069</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42978</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42886</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42794</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42704</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,40 +2226,41 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
-        <v>500</v>
-      </c>
       <c r="H41" s="3">
+        <v>600</v>
+      </c>
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
-        <v>1900</v>
-      </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
@@ -2182,16 +2269,19 @@
         <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2202,16 +2292,16 @@
         <v>700</v>
       </c>
       <c r="F42" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G42" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H42" s="3">
-        <v>700</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
+        <v>800</v>
+      </c>
+      <c r="I42" s="3">
+        <v>800</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>4</v>
@@ -2219,8 +2309,8 @@
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2249,13 +2342,13 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,16 +2436,19 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2390,31 +2489,34 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
         <v>800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>900</v>
       </c>
-      <c r="F46" s="3">
-        <v>1000</v>
-      </c>
       <c r="G46" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="H46" s="3">
         <v>1400</v>
       </c>
       <c r="I46" s="3">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,58 +2595,64 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>700</v>
+      </c>
+      <c r="E48" s="3">
         <v>600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>600</v>
+      </c>
+      <c r="G48" s="3">
         <v>500</v>
-      </c>
-      <c r="F48" s="3">
-        <v>500</v>
-      </c>
-      <c r="G48" s="3">
-        <v>200</v>
       </c>
       <c r="H48" s="3">
         <v>200</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J48" s="3">
-        <v>1900</v>
+        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>1900</v>
       </c>
       <c r="L48" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="M48" s="3">
         <v>2000</v>
       </c>
       <c r="N48" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="O48" s="3">
         <v>2100</v>
       </c>
       <c r="P48" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="Q48" s="3">
         <v>2200</v>
       </c>
       <c r="R48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="S48" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,13 +2913,16 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="E54" s="3">
         <v>1400</v>
@@ -2805,19 +2931,19 @@
         <v>1500</v>
       </c>
       <c r="G54" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H54" s="3">
         <v>1600</v>
       </c>
       <c r="I54" s="3">
-        <v>2100</v>
+        <v>1700</v>
       </c>
       <c r="J54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K54" s="3">
         <v>1900</v>
-      </c>
-      <c r="K54" s="3">
-        <v>2100</v>
       </c>
       <c r="L54" s="3">
         <v>2100</v>
@@ -2829,19 +2955,22 @@
         <v>2100</v>
       </c>
       <c r="O54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P54" s="3">
         <v>2200</v>
-      </c>
-      <c r="P54" s="3">
-        <v>2300</v>
       </c>
       <c r="Q54" s="3">
         <v>2300</v>
       </c>
       <c r="R54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="S54" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2892,20 +3023,20 @@
         <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
       <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,8 +3114,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3004,7 +3141,7 @@
         <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>500</v>
@@ -3019,19 +3156,22 @@
         <v>500</v>
       </c>
       <c r="O59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P59" s="3">
         <v>400</v>
       </c>
       <c r="Q59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3051,16 +3191,16 @@
         <v>100</v>
       </c>
       <c r="I60" s="3">
+        <v>100</v>
+      </c>
+      <c r="J60" s="3">
         <v>500</v>
-      </c>
-      <c r="J60" s="3">
-        <v>600</v>
       </c>
       <c r="K60" s="3">
         <v>600</v>
       </c>
       <c r="L60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M60" s="3">
         <v>500</v>
@@ -3069,7 +3209,7 @@
         <v>500</v>
       </c>
       <c r="O60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P60" s="3">
         <v>400</v>
@@ -3078,10 +3218,13 @@
         <v>400</v>
       </c>
       <c r="R60" s="3">
+        <v>400</v>
+      </c>
+      <c r="S60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3159,17 +3305,17 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P62" s="3">
         <v>100</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,8 +3485,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3351,16 +3509,16 @@
         <v>100</v>
       </c>
       <c r="I66" s="3">
+        <v>100</v>
+      </c>
+      <c r="J66" s="3">
         <v>500</v>
-      </c>
-      <c r="J66" s="3">
-        <v>600</v>
       </c>
       <c r="K66" s="3">
         <v>600</v>
       </c>
       <c r="L66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M66" s="3">
         <v>500</v>
@@ -3372,7 +3530,7 @@
         <v>500</v>
       </c>
       <c r="P66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q66" s="3">
         <v>400</v>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-17700</v>
+        <v>-18700</v>
       </c>
       <c r="E72" s="3">
-        <v>-17600</v>
+        <v>-18600</v>
       </c>
       <c r="F72" s="3">
-        <v>-17600</v>
+        <v>-18400</v>
       </c>
       <c r="G72" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-17500</v>
       </c>
-      <c r="H72" s="3">
-        <v>-17400</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-17300</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-17500</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-18100</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-17800</v>
       </c>
       <c r="M72" s="3">
         <v>-17800</v>
       </c>
       <c r="N72" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="O72" s="3">
         <v>-17700</v>
       </c>
       <c r="P72" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-18200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-18100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,13 +3983,16 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="E76" s="3">
         <v>1300</v>
@@ -3824,34 +4010,37 @@
         <v>1600</v>
       </c>
       <c r="J76" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K76" s="3">
         <v>1400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1500</v>
-      </c>
-      <c r="L76" s="3">
-        <v>1600</v>
       </c>
       <c r="M76" s="3">
         <v>1600</v>
       </c>
       <c r="N76" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="O76" s="3">
         <v>1700</v>
       </c>
       <c r="P76" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q76" s="3">
         <v>1800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E80" s="2">
         <v>43890</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43799</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43708</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43616</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43524</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43434</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43343</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43251</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43159</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43069</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42978</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42886</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42794</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42704</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3964,11 +4159,11 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
-        <v>-100</v>
-      </c>
       <c r="G81" s="3">
         <v>-100</v>
       </c>
@@ -3976,11 +4171,11 @@
         <v>-100</v>
       </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
       <c r="K81" s="3">
         <v>-100</v>
       </c>
@@ -3991,10 +4186,10 @@
         <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
@@ -4003,10 +4198,13 @@
         <v>-100</v>
       </c>
       <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4337,28 +4554,28 @@
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -4373,10 +4590,13 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,23 +4615,24 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -4431,22 +4652,25 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R91" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>2100</v>
+        <v>-800</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="K94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
-        <v>-100</v>
-      </c>
       <c r="H102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-1300</v>
       </c>
-      <c r="I102" s="3">
-        <v>1900</v>
-      </c>
       <c r="J102" s="3">
-        <v>-100</v>
+        <v>2000</v>
       </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GGTHF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GGTHF_QTR_FIN.xlsx
@@ -2504,7 +2504,7 @@
         <v>800</v>
       </c>
       <c r="F46" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G46" s="3">
         <v>1100</v>
@@ -2516,7 +2516,7 @@
         <v>1500</v>
       </c>
       <c r="J46" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
@@ -3780,25 +3780,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-18700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-18600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="I72" s="3">
         <v>-18400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-18400</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-18300</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-18200</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-18200</v>
       </c>
       <c r="K72" s="3">
         <v>-17500</v>

--- a/AAII_Financials/Quarterly/GGTHF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GGTHF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>GGTHF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,92 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44074</v>
+      </c>
+      <c r="F7" s="2">
         <v>43982</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43890</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43799</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43708</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43616</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43524</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43434</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43343</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43251</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43159</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43069</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42978</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42886</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42794</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42704</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +802,14 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -821,14 +834,14 @@
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
+      <c r="M9" s="3">
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
@@ -848,8 +861,14 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -874,14 +893,14 @@
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
+      <c r="M10" s="3">
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
@@ -901,8 +920,14 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +947,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +1002,14 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1061,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1072,17 +1111,23 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1119,23 +1164,29 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,38 +1203,40 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
       <c r="I17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
-        <v>100</v>
-      </c>
-      <c r="L17" s="3">
-        <v>100</v>
-      </c>
       <c r="M17" s="3">
         <v>100</v>
       </c>
@@ -1191,22 +1244,28 @@
         <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
       </c>
       <c r="Q17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R17" s="3">
         <v>100</v>
       </c>
       <c r="S17" s="3">
+        <v>100</v>
+      </c>
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+      <c r="U17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,29 +1273,29 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-100</v>
-      </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-100</v>
-      </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
@@ -1244,22 +1303,28 @@
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
       <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1344,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,29 +1355,29 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1330,10 +1397,16 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,29 +1414,29 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-100</v>
-      </c>
       <c r="I21" s="3">
         <v>-100</v>
       </c>
       <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-100</v>
-      </c>
       <c r="M21" s="3">
         <v>-100</v>
       </c>
@@ -1371,22 +1444,28 @@
         <v>-100</v>
       </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P21" s="3">
         <v>-100</v>
       </c>
       <c r="Q21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R21" s="3">
         <v>-100</v>
       </c>
       <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,38 +1517,44 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-100</v>
-      </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-100</v>
-      </c>
       <c r="M23" s="3">
         <v>-100</v>
       </c>
@@ -1477,22 +1562,28 @@
         <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
         <v>-100</v>
       </c>
       <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1635,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,38 +1694,44 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-100</v>
-      </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
-      </c>
       <c r="M26" s="3">
         <v>-100</v>
       </c>
@@ -1636,52 +1739,58 @@
         <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
       </c>
       <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-100</v>
-      </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
       <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
-      </c>
       <c r="M27" s="3">
         <v>-100</v>
       </c>
@@ -1689,22 +1798,28 @@
         <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
       </c>
       <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1871,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1930,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1989,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +2048,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,29 +2063,29 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1966,40 +2105,46 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
-      </c>
       <c r="M33" s="3">
         <v>-100</v>
       </c>
@@ -2007,22 +2152,28 @@
         <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
         <v>-100</v>
       </c>
       <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,38 +2225,44 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
-      </c>
       <c r="M35" s="3">
         <v>-100</v>
       </c>
@@ -2113,80 +2270,92 @@
         <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
         <v>-100</v>
       </c>
       <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44074</v>
+      </c>
+      <c r="F38" s="2">
         <v>43982</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43890</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43799</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43708</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43616</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43524</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43434</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43343</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43251</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43159</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43069</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42978</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42886</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42794</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42704</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2375,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2398,10 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2236,29 +2409,29 @@
         <v>200</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>1800</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2000</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2266,13 +2439,13 @@
         <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
@@ -2280,22 +2453,28 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E42" s="3">
         <v>600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
+        <v>600</v>
+      </c>
+      <c r="G42" s="3">
         <v>700</v>
-      </c>
-      <c r="F42" s="3">
-        <v>800</v>
-      </c>
-      <c r="G42" s="3">
-        <v>800</v>
       </c>
       <c r="H42" s="3">
         <v>800</v>
@@ -2303,20 +2482,20 @@
       <c r="I42" s="3">
         <v>800</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
+      <c r="J42" s="3">
+        <v>800</v>
+      </c>
+      <c r="K42" s="3">
+        <v>800</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2333,8 +2512,14 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2345,16 +2530,16 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -2386,8 +2571,14 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2630,14 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2448,13 +2645,13 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2492,38 +2689,44 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2100</v>
       </c>
-      <c r="K46" s="3">
-        <v>100</v>
-      </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
       <c r="M46" s="3">
         <v>100</v>
       </c>
@@ -2545,8 +2748,14 @@
       <c r="S46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,61 +2807,73 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>900</v>
+      </c>
+      <c r="F48" s="3">
         <v>700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>500</v>
-      </c>
-      <c r="H48" s="3">
-        <v>200</v>
-      </c>
-      <c r="I48" s="3">
-        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
       </c>
       <c r="K48" s="3">
+        <v>200</v>
+      </c>
+      <c r="L48" s="3">
+        <v>200</v>
+      </c>
+      <c r="M48" s="3">
         <v>1900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2925,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2984,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +3043,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +3102,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,22 +3161,28 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G54" s="3">
         <v>1500</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1400</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1600</v>
       </c>
       <c r="H54" s="3">
         <v>1600</v>
@@ -2940,16 +3191,16 @@
         <v>1700</v>
       </c>
       <c r="J54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L54" s="3">
         <v>2200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1900</v>
-      </c>
-      <c r="L54" s="3">
-        <v>2100</v>
-      </c>
-      <c r="M54" s="3">
-        <v>2100</v>
       </c>
       <c r="N54" s="3">
         <v>2100</v>
@@ -2958,19 +3209,25 @@
         <v>2100</v>
       </c>
       <c r="P54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R54" s="3">
         <v>2200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3247,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,38 +3270,40 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
@@ -3064,8 +3325,14 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,8 +3384,14 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3144,10 +3417,10 @@
         <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
         <v>500</v>
@@ -3159,27 +3432,33 @@
         <v>500</v>
       </c>
       <c r="P59" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>500</v>
+      </c>
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F60" s="3">
         <v>100</v>
@@ -3194,37 +3473,43 @@
         <v>100</v>
       </c>
       <c r="J60" s="3">
+        <v>100</v>
+      </c>
+      <c r="K60" s="3">
+        <v>100</v>
+      </c>
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>600</v>
-      </c>
-      <c r="M60" s="3">
-        <v>500</v>
-      </c>
-      <c r="N60" s="3">
-        <v>500</v>
       </c>
       <c r="O60" s="3">
         <v>500</v>
       </c>
       <c r="P60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R60" s="3">
         <v>400</v>
       </c>
       <c r="S60" s="3">
+        <v>400</v>
+      </c>
+      <c r="T60" s="3">
+        <v>400</v>
+      </c>
+      <c r="U60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3561,14 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3308,20 +3599,20 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>100</v>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R62" s="3">
         <v>100</v>
@@ -3329,8 +3620,14 @@
       <c r="S62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>100</v>
+      </c>
+      <c r="U62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3679,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3738,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,16 +3797,22 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F66" s="3">
         <v>100</v>
@@ -3512,19 +3827,19 @@
         <v>100</v>
       </c>
       <c r="J66" s="3">
+        <v>100</v>
+      </c>
+      <c r="K66" s="3">
+        <v>100</v>
+      </c>
+      <c r="L66" s="3">
         <v>500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>600</v>
-      </c>
-      <c r="M66" s="3">
-        <v>500</v>
-      </c>
-      <c r="N66" s="3">
-        <v>500</v>
       </c>
       <c r="O66" s="3">
         <v>500</v>
@@ -3533,16 +3848,22 @@
         <v>500</v>
       </c>
       <c r="Q66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>400</v>
+      </c>
+      <c r="U66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3883,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3938,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3997,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4056,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4115,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-18900</v>
+        <v>-19900</v>
       </c>
       <c r="E72" s="3">
-        <v>-18800</v>
+        <v>-19800</v>
       </c>
       <c r="F72" s="3">
-        <v>-18700</v>
+        <v>-19400</v>
       </c>
       <c r="G72" s="3">
-        <v>-18600</v>
+        <v>-19300</v>
       </c>
       <c r="H72" s="3">
-        <v>-18500</v>
+        <v>-19200</v>
       </c>
       <c r="I72" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-18400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-18400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-17500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-18100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-17800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-17800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-17700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-17700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-18200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-18100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4233,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4292,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4351,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1400</v>
+        <v>3400</v>
       </c>
       <c r="E76" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G76" s="3">
         <v>1300</v>
-      </c>
-      <c r="F76" s="3">
-        <v>1400</v>
-      </c>
-      <c r="G76" s="3">
-        <v>1500</v>
       </c>
       <c r="H76" s="3">
         <v>1500</v>
       </c>
       <c r="I76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J76" s="3">
         <v>1600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L76" s="3">
         <v>1700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,96 +4469,108 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44074</v>
+      </c>
+      <c r="F80" s="2">
         <v>43982</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43890</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43799</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43708</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43616</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43524</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43434</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43343</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43251</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43159</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43069</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42978</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42886</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42794</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42704</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
-      </c>
       <c r="M81" s="3">
         <v>-100</v>
       </c>
@@ -4189,22 +4578,28 @@
         <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
         <v>-100</v>
       </c>
       <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4619,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4674,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4733,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4792,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4851,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4910,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,46 +4969,52 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -4593,10 +5026,16 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,29 +5055,31 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
@@ -4655,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4669,8 +5110,14 @@
       <c r="S91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5169,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,38 +5228,44 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="E94" s="3">
-        <v>100</v>
+        <v>-400</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>100</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>2200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>100</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -4828,8 +5287,14 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>100</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5314,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5369,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5428,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5487,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,31 +5546,37 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>2100</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -5114,8 +5605,14 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,38 +5664,44 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>2000</v>
       </c>
-      <c r="K102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
         <v>-100</v>
       </c>
@@ -5206,18 +5709,24 @@
         <v>100</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P102" s="3">
         <v>100</v>
       </c>
       <c r="Q102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
         <v>100</v>
       </c>
       <c r="S102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T102" s="3">
+        <v>100</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GGTHF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GGTHF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>GGTHF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E7" s="2">
         <v>44165</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44074</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43982</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43890</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43799</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43708</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43616</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43524</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43434</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43343</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43251</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43159</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43069</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42978</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42886</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42794</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42704</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -808,8 +812,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -840,11 +847,11 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -899,11 +909,11 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1117,8 +1137,8 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1170,14 +1193,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,41 +1231,42 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
       </c>
       <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
       <c r="N17" s="3">
         <v>100</v>
       </c>
@@ -1250,10 +1277,10 @@
         <v>100</v>
       </c>
       <c r="Q17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S17" s="3">
         <v>100</v>
@@ -1262,10 +1289,13 @@
         <v>100</v>
       </c>
       <c r="U17" s="3">
+        <v>100</v>
+      </c>
+      <c r="V17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1273,32 +1303,32 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
-        <v>-100</v>
-      </c>
       <c r="G18" s="3">
         <v>-100</v>
       </c>
       <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
       <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
-        <v>-100</v>
-      </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
@@ -1309,10 +1339,10 @@
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
         <v>-100</v>
@@ -1321,10 +1351,13 @@
         <v>-100</v>
       </c>
       <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1355,11 +1389,11 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1367,20 +1401,20 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1403,10 +1437,13 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1414,20 +1451,20 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
-        <v>-100</v>
-      </c>
       <c r="G21" s="3">
         <v>-100</v>
       </c>
       <c r="H21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
-        <v>-100</v>
-      </c>
       <c r="J21" s="3">
         <v>-100</v>
       </c>
@@ -1435,11 +1472,11 @@
         <v>-100</v>
       </c>
       <c r="L21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
-        <v>-100</v>
-      </c>
       <c r="N21" s="3">
         <v>-100</v>
       </c>
@@ -1450,10 +1487,10 @@
         <v>-100</v>
       </c>
       <c r="Q21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S21" s="3">
         <v>-100</v>
@@ -1462,10 +1499,13 @@
         <v>-100</v>
       </c>
       <c r="U21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,29 +1563,32 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
-        <v>-100</v>
-      </c>
       <c r="G23" s="3">
         <v>-100</v>
       </c>
       <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
       <c r="J23" s="3">
         <v>-100</v>
       </c>
@@ -1553,11 +1596,11 @@
         <v>-100</v>
       </c>
       <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
-        <v>-100</v>
-      </c>
       <c r="N23" s="3">
         <v>-100</v>
       </c>
@@ -1568,10 +1611,10 @@
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
         <v>-100</v>
@@ -1580,10 +1623,13 @@
         <v>-100</v>
       </c>
       <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,29 +1749,32 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
-        <v>-100</v>
-      </c>
       <c r="G26" s="3">
         <v>-100</v>
       </c>
       <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
       <c r="J26" s="3">
         <v>-100</v>
       </c>
@@ -1730,11 +1782,11 @@
         <v>-100</v>
       </c>
       <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
-        <v>-100</v>
-      </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
@@ -1745,10 +1797,10 @@
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
@@ -1757,31 +1809,34 @@
         <v>-100</v>
       </c>
       <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
-        <v>-100</v>
-      </c>
       <c r="G27" s="3">
         <v>-100</v>
       </c>
       <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
       <c r="J27" s="3">
         <v>-100</v>
       </c>
@@ -1789,11 +1844,11 @@
         <v>-100</v>
       </c>
       <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
-        <v>-100</v>
-      </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
@@ -1804,10 +1859,10 @@
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
@@ -1816,10 +1871,13 @@
         <v>-100</v>
       </c>
       <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2063,11 +2133,11 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2075,20 +2145,20 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2111,31 +2181,34 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
-        <v>-100</v>
-      </c>
       <c r="G33" s="3">
         <v>-100</v>
       </c>
       <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
       <c r="J33" s="3">
         <v>-100</v>
       </c>
@@ -2143,11 +2216,11 @@
         <v>-100</v>
       </c>
       <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
-        <v>-100</v>
-      </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
@@ -2158,10 +2231,10 @@
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
         <v>-100</v>
@@ -2170,10 +2243,13 @@
         <v>-100</v>
       </c>
       <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,29 +2307,32 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
-        <v>-100</v>
-      </c>
       <c r="G35" s="3">
         <v>-100</v>
       </c>
       <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
       <c r="J35" s="3">
         <v>-100</v>
       </c>
@@ -2261,11 +2340,11 @@
         <v>-100</v>
       </c>
       <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
-        <v>-100</v>
-      </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
@@ -2276,10 +2355,10 @@
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
         <v>-100</v>
@@ -2288,74 +2367,80 @@
         <v>-100</v>
       </c>
       <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E38" s="2">
         <v>44165</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44074</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43982</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43890</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43799</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43708</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43616</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43524</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43434</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43343</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43251</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43159</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43069</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42978</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42886</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42794</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42704</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,49 +2486,50 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
-        <v>1800</v>
-      </c>
       <c r="F41" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
       <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2000</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
@@ -2451,33 +2538,36 @@
         <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E42" s="3">
-        <v>600</v>
+        <v>2100</v>
       </c>
       <c r="F42" s="3">
         <v>600</v>
       </c>
       <c r="G42" s="3">
+        <v>600</v>
+      </c>
+      <c r="H42" s="3">
         <v>700</v>
-      </c>
-      <c r="H42" s="3">
-        <v>800</v>
       </c>
       <c r="I42" s="3">
         <v>800</v>
@@ -2488,8 +2578,8 @@
       <c r="K42" s="3">
         <v>800</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
+      <c r="L42" s="3">
+        <v>800</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>4</v>
@@ -2497,8 +2587,8 @@
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2518,13 +2608,16 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2536,13 +2629,13 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2651,10 +2750,10 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2695,41 +2794,44 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="E46" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="F46" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G46" s="3">
         <v>900</v>
       </c>
-      <c r="G46" s="3">
-        <v>800</v>
-      </c>
       <c r="H46" s="3">
+        <v>900</v>
+      </c>
+      <c r="I46" s="3">
         <v>1000</v>
       </c>
-      <c r="I46" s="3">
-        <v>1100</v>
-      </c>
       <c r="J46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2100</v>
       </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
       <c r="N46" s="3">
         <v>100</v>
       </c>
@@ -2754,8 +2856,11 @@
       <c r="U46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,31 +2918,34 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
+        <v>700</v>
+      </c>
+      <c r="I48" s="3">
         <v>600</v>
       </c>
-      <c r="H48" s="3">
-        <v>600</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>200</v>
@@ -2846,34 +2954,37 @@
         <v>200</v>
       </c>
       <c r="M48" s="3">
-        <v>1900</v>
+        <v>200</v>
       </c>
       <c r="N48" s="3">
         <v>1900</v>
       </c>
       <c r="O48" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="P48" s="3">
         <v>2000</v>
       </c>
       <c r="Q48" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="R48" s="3">
         <v>2100</v>
       </c>
       <c r="S48" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="T48" s="3">
         <v>2200</v>
       </c>
       <c r="U48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="V48" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,28 +3290,31 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="E54" s="3">
-        <v>3400</v>
+        <v>3800</v>
       </c>
       <c r="F54" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G54" s="3">
         <v>1600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1600</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1700</v>
       </c>
       <c r="J54" s="3">
         <v>1700</v>
@@ -3197,13 +3323,13 @@
         <v>1700</v>
       </c>
       <c r="L54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M54" s="3">
         <v>2200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1900</v>
-      </c>
-      <c r="N54" s="3">
-        <v>2100</v>
       </c>
       <c r="O54" s="3">
         <v>2100</v>
@@ -3215,19 +3341,22 @@
         <v>2100</v>
       </c>
       <c r="R54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="S54" s="3">
         <v>2200</v>
-      </c>
-      <c r="S54" s="3">
-        <v>2300</v>
       </c>
       <c r="T54" s="3">
         <v>2300</v>
       </c>
       <c r="U54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="V54" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,19 +3402,20 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -3293,20 +3424,20 @@
         <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
@@ -3331,8 +3462,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3390,8 +3524,11 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3423,7 +3560,7 @@
         <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>500</v>
@@ -3438,30 +3575,33 @@
         <v>500</v>
       </c>
       <c r="R59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S59" s="3">
         <v>400</v>
       </c>
       <c r="T59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
         <v>200</v>
       </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
@@ -3479,16 +3619,16 @@
         <v>100</v>
       </c>
       <c r="L60" s="3">
+        <v>100</v>
+      </c>
+      <c r="M60" s="3">
         <v>500</v>
-      </c>
-      <c r="M60" s="3">
-        <v>600</v>
       </c>
       <c r="N60" s="3">
         <v>600</v>
       </c>
       <c r="O60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P60" s="3">
         <v>500</v>
@@ -3497,7 +3637,7 @@
         <v>500</v>
       </c>
       <c r="R60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S60" s="3">
         <v>400</v>
@@ -3506,10 +3646,13 @@
         <v>400</v>
       </c>
       <c r="U60" s="3">
+        <v>400</v>
+      </c>
+      <c r="V60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3605,17 +3751,17 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S62" s="3">
         <v>100</v>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,19 +3958,22 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E66" s="3">
         <v>200</v>
       </c>
       <c r="F66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G66" s="3">
         <v>100</v>
@@ -3833,16 +3991,16 @@
         <v>100</v>
       </c>
       <c r="L66" s="3">
+        <v>100</v>
+      </c>
+      <c r="M66" s="3">
         <v>500</v>
-      </c>
-      <c r="M66" s="3">
-        <v>600</v>
       </c>
       <c r="N66" s="3">
         <v>600</v>
       </c>
       <c r="O66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P66" s="3">
         <v>500</v>
@@ -3854,7 +4012,7 @@
         <v>500</v>
       </c>
       <c r="S66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T66" s="3">
         <v>400</v>
@@ -3862,8 +4020,11 @@
       <c r="U66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-19900</v>
+        <v>-21000</v>
       </c>
       <c r="E72" s="3">
-        <v>-19800</v>
+        <v>-20800</v>
       </c>
       <c r="F72" s="3">
-        <v>-19400</v>
+        <v>-20700</v>
       </c>
       <c r="G72" s="3">
-        <v>-19300</v>
+        <v>-20300</v>
       </c>
       <c r="H72" s="3">
-        <v>-19200</v>
+        <v>-20200</v>
       </c>
       <c r="I72" s="3">
-        <v>-19200</v>
+        <v>-20100</v>
       </c>
       <c r="J72" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-19100</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-18400</v>
       </c>
       <c r="L72" s="3">
         <v>-18400</v>
       </c>
       <c r="M72" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="N72" s="3">
         <v>-17500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-18100</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-17800</v>
       </c>
       <c r="P72" s="3">
         <v>-17800</v>
       </c>
       <c r="Q72" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="R72" s="3">
         <v>-17700</v>
       </c>
       <c r="S72" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="T72" s="3">
         <v>-18200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-18100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,25 +4540,28 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3400</v>
+        <v>3700</v>
       </c>
       <c r="E76" s="3">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="F76" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G76" s="3">
         <v>1500</v>
       </c>
-      <c r="G76" s="3">
-        <v>1300</v>
-      </c>
       <c r="H76" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I76" s="3">
         <v>1500</v>
@@ -4387,37 +4573,40 @@
         <v>1600</v>
       </c>
       <c r="L76" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M76" s="3">
         <v>1700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1500</v>
-      </c>
-      <c r="O76" s="3">
-        <v>1600</v>
       </c>
       <c r="P76" s="3">
         <v>1600</v>
       </c>
       <c r="Q76" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="R76" s="3">
         <v>1700</v>
       </c>
       <c r="S76" s="3">
+        <v>1700</v>
+      </c>
+      <c r="T76" s="3">
         <v>1800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,93 +4664,99 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E80" s="2">
         <v>44165</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44074</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43982</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43890</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43799</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43708</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43616</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43524</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43434</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43343</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43251</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43159</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43069</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42978</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42886</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42794</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42704</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
-        <v>-100</v>
-      </c>
       <c r="G81" s="3">
         <v>-100</v>
       </c>
       <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
       <c r="J81" s="3">
         <v>-100</v>
       </c>
@@ -4569,11 +4764,11 @@
         <v>-100</v>
       </c>
       <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
-        <v>-100</v>
-      </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
@@ -4584,10 +4779,10 @@
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
         <v>-100</v>
@@ -4596,10 +4791,13 @@
         <v>-100</v>
       </c>
       <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,20 +5189,23 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
-        <v>-100</v>
-      </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
@@ -4996,28 +5213,28 @@
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -5032,10 +5249,13 @@
         <v>0</v>
       </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,31 +5277,32 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
-        <v>100</v>
-      </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5102,22 +5323,25 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U91" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1900</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I94" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2200</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,19 +5795,22 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
-        <v>2100</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
+        <v>400</v>
+      </c>
+      <c r="F100" s="3">
+        <v>2200</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
@@ -5578,8 +5824,8 @@
       <c r="J100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -5611,8 +5857,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1600</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F102" s="3">
         <v>1600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
-        <v>-100</v>
-      </c>
       <c r="H102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
-        <v>-100</v>
-      </c>
       <c r="K102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-1300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2000</v>
       </c>
-      <c r="M102" s="3">
-        <v>-100</v>
-      </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="U102" s="3">
+        <v>100</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GGTHF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GGTHF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>GGTHF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E7" s="2">
         <v>44255</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44165</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44074</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43982</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43890</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43799</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43708</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43616</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43524</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43434</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43343</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43251</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43159</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43069</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42978</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42886</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42794</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42704</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -850,11 +857,11 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -912,11 +922,11 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1140,8 +1160,8 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1196,14 +1219,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1258,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1241,35 +1268,35 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
       </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
-        <v>100</v>
-      </c>
       <c r="O17" s="3">
         <v>100</v>
       </c>
@@ -1280,10 +1307,10 @@
         <v>100</v>
       </c>
       <c r="R17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T17" s="3">
         <v>100</v>
@@ -1292,10 +1319,13 @@
         <v>100</v>
       </c>
       <c r="V17" s="3">
+        <v>100</v>
+      </c>
+      <c r="W17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,35 +1333,35 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
-        <v>-100</v>
-      </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
       <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
-        <v>-100</v>
-      </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
@@ -1342,10 +1372,10 @@
         <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
@@ -1354,10 +1384,13 @@
         <v>-100</v>
       </c>
       <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1392,11 +1426,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1404,20 +1438,20 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1440,10 +1474,13 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,23 +1488,23 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
-        <v>-100</v>
-      </c>
       <c r="H21" s="3">
         <v>-100</v>
       </c>
       <c r="I21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
-        <v>-100</v>
-      </c>
       <c r="K21" s="3">
         <v>-100</v>
       </c>
@@ -1475,11 +1512,11 @@
         <v>-100</v>
       </c>
       <c r="M21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
-        <v>-100</v>
-      </c>
       <c r="O21" s="3">
         <v>-100</v>
       </c>
@@ -1490,10 +1527,10 @@
         <v>-100</v>
       </c>
       <c r="R21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T21" s="3">
         <v>-100</v>
@@ -1502,10 +1539,13 @@
         <v>-100</v>
       </c>
       <c r="V21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,8 +1606,11 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1575,23 +1618,23 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
-        <v>-100</v>
-      </c>
       <c r="H23" s="3">
         <v>-100</v>
       </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
-        <v>-100</v>
-      </c>
       <c r="K23" s="3">
         <v>-100</v>
       </c>
@@ -1599,11 +1642,11 @@
         <v>-100</v>
       </c>
       <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
-        <v>-100</v>
-      </c>
       <c r="O23" s="3">
         <v>-100</v>
       </c>
@@ -1614,10 +1657,10 @@
         <v>-100</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
@@ -1626,10 +1669,13 @@
         <v>-100</v>
       </c>
       <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,8 +1801,11 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1761,23 +1813,23 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
-        <v>-100</v>
-      </c>
       <c r="H26" s="3">
         <v>-100</v>
       </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
-        <v>-100</v>
-      </c>
       <c r="K26" s="3">
         <v>-100</v>
       </c>
@@ -1785,11 +1837,11 @@
         <v>-100</v>
       </c>
       <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
-        <v>-100</v>
-      </c>
       <c r="O26" s="3">
         <v>-100</v>
       </c>
@@ -1800,10 +1852,10 @@
         <v>-100</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
@@ -1812,10 +1864,13 @@
         <v>-100</v>
       </c>
       <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1823,23 +1878,23 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
-        <v>-100</v>
-      </c>
       <c r="H27" s="3">
         <v>-100</v>
       </c>
       <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
-        <v>-100</v>
-      </c>
       <c r="K27" s="3">
         <v>-100</v>
       </c>
@@ -1847,11 +1902,11 @@
         <v>-100</v>
       </c>
       <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
-        <v>-100</v>
-      </c>
       <c r="O27" s="3">
         <v>-100</v>
       </c>
@@ -1862,10 +1917,10 @@
         <v>-100</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
@@ -1874,10 +1929,13 @@
         <v>-100</v>
       </c>
       <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2136,11 +2206,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2148,20 +2218,20 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2184,10 +2254,13 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2195,23 +2268,23 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
-        <v>-100</v>
-      </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
       <c r="K33" s="3">
         <v>-100</v>
       </c>
@@ -2219,11 +2292,11 @@
         <v>-100</v>
       </c>
       <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
-        <v>-100</v>
-      </c>
       <c r="O33" s="3">
         <v>-100</v>
       </c>
@@ -2234,10 +2307,10 @@
         <v>-100</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
@@ -2246,10 +2319,13 @@
         <v>-100</v>
       </c>
       <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,8 +2386,11 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2319,23 +2398,23 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
-        <v>-100</v>
-      </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
       <c r="K35" s="3">
         <v>-100</v>
       </c>
@@ -2343,11 +2422,11 @@
         <v>-100</v>
       </c>
       <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
-        <v>-100</v>
-      </c>
       <c r="O35" s="3">
         <v>-100</v>
       </c>
@@ -2358,10 +2437,10 @@
         <v>-100</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
@@ -2370,77 +2449,83 @@
         <v>-100</v>
       </c>
       <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E38" s="2">
         <v>44255</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44165</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44074</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43982</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43890</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43799</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43708</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43616</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43524</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43434</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43343</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43251</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43159</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43069</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42978</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42886</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42794</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42704</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,8 +2573,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2496,43 +2583,43 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
-        <v>1900</v>
-      </c>
       <c r="G41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2000</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
@@ -2541,36 +2628,39 @@
         <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="E42" s="3">
-        <v>2100</v>
+        <v>1800</v>
       </c>
       <c r="F42" s="3">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="G42" s="3">
         <v>600</v>
       </c>
       <c r="H42" s="3">
+        <v>600</v>
+      </c>
+      <c r="I42" s="3">
         <v>700</v>
-      </c>
-      <c r="I42" s="3">
-        <v>800</v>
       </c>
       <c r="J42" s="3">
         <v>800</v>
@@ -2581,8 +2671,8 @@
       <c r="L42" s="3">
         <v>800</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
+      <c r="M42" s="3">
+        <v>800</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>4</v>
@@ -2590,8 +2680,8 @@
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2620,7 +2713,7 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2632,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2753,10 +2852,10 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2797,44 +2896,47 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="E46" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G46" s="3">
         <v>2400</v>
-      </c>
-      <c r="F46" s="3">
-        <v>2600</v>
-      </c>
-      <c r="G46" s="3">
-        <v>900</v>
       </c>
       <c r="H46" s="3">
         <v>900</v>
       </c>
       <c r="I46" s="3">
+        <v>800</v>
+      </c>
+      <c r="J46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2100</v>
       </c>
-      <c r="N46" s="3">
-        <v>100</v>
-      </c>
       <c r="O46" s="3">
         <v>100</v>
       </c>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,22 +3026,25 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="E48" s="3">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="F48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G48" s="3">
         <v>900</v>
-      </c>
-      <c r="G48" s="3">
-        <v>700</v>
       </c>
       <c r="H48" s="3">
         <v>700</v>
@@ -2945,10 +3053,10 @@
         <v>600</v>
       </c>
       <c r="J48" s="3">
+        <v>600</v>
+      </c>
+      <c r="K48" s="3">
         <v>500</v>
-      </c>
-      <c r="K48" s="3">
-        <v>200</v>
       </c>
       <c r="L48" s="3">
         <v>200</v>
@@ -2957,34 +3065,37 @@
         <v>200</v>
       </c>
       <c r="N48" s="3">
-        <v>1900</v>
+        <v>200</v>
       </c>
       <c r="O48" s="3">
         <v>1900</v>
       </c>
       <c r="P48" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="Q48" s="3">
         <v>2000</v>
       </c>
       <c r="R48" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="S48" s="3">
         <v>2100</v>
       </c>
       <c r="T48" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="U48" s="3">
         <v>2200</v>
       </c>
       <c r="V48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="W48" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,31 +3416,34 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="E54" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="F54" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="G54" s="3">
-        <v>1600</v>
+        <v>3300</v>
       </c>
       <c r="H54" s="3">
         <v>1500</v>
       </c>
       <c r="I54" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="J54" s="3">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="K54" s="3">
         <v>1700</v>
@@ -3326,13 +3452,13 @@
         <v>1700</v>
       </c>
       <c r="M54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N54" s="3">
         <v>2200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1900</v>
-      </c>
-      <c r="O54" s="3">
-        <v>2100</v>
       </c>
       <c r="P54" s="3">
         <v>2100</v>
@@ -3344,19 +3470,22 @@
         <v>2100</v>
       </c>
       <c r="S54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="T54" s="3">
         <v>2200</v>
-      </c>
-      <c r="T54" s="3">
-        <v>2300</v>
       </c>
       <c r="U54" s="3">
         <v>2300</v>
       </c>
       <c r="V54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="W54" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3412,13 +3543,13 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -3427,20 +3558,20 @@
         <v>0</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
       <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,8 +3661,11 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3563,7 +3700,7 @@
         <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>500</v>
@@ -3578,33 +3715,36 @@
         <v>500</v>
       </c>
       <c r="S59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T59" s="3">
         <v>400</v>
       </c>
       <c r="U59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="V59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F60" s="3">
         <v>200</v>
       </c>
       <c r="G60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H60" s="3">
         <v>100</v>
@@ -3622,16 +3762,16 @@
         <v>100</v>
       </c>
       <c r="M60" s="3">
+        <v>100</v>
+      </c>
+      <c r="N60" s="3">
         <v>500</v>
-      </c>
-      <c r="N60" s="3">
-        <v>600</v>
       </c>
       <c r="O60" s="3">
         <v>600</v>
       </c>
       <c r="P60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q60" s="3">
         <v>500</v>
@@ -3640,7 +3780,7 @@
         <v>500</v>
       </c>
       <c r="S60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T60" s="3">
         <v>400</v>
@@ -3649,10 +3789,13 @@
         <v>400</v>
       </c>
       <c r="V60" s="3">
+        <v>400</v>
+      </c>
+      <c r="W60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3754,17 +3900,17 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T62" s="3">
         <v>100</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,22 +4116,25 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F66" s="3">
         <v>200</v>
       </c>
       <c r="G66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H66" s="3">
         <v>100</v>
@@ -3994,16 +4152,16 @@
         <v>100</v>
       </c>
       <c r="M66" s="3">
+        <v>100</v>
+      </c>
+      <c r="N66" s="3">
         <v>500</v>
-      </c>
-      <c r="N66" s="3">
-        <v>600</v>
       </c>
       <c r="O66" s="3">
         <v>600</v>
       </c>
       <c r="P66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q66" s="3">
         <v>500</v>
@@ -4015,7 +4173,7 @@
         <v>500</v>
       </c>
       <c r="T66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="U66" s="3">
         <v>400</v>
@@ -4023,8 +4181,11 @@
       <c r="V66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-21000</v>
+        <v>-19800</v>
       </c>
       <c r="E72" s="3">
-        <v>-20800</v>
+        <v>-19700</v>
       </c>
       <c r="F72" s="3">
-        <v>-20700</v>
+        <v>-19600</v>
       </c>
       <c r="G72" s="3">
-        <v>-20300</v>
+        <v>-19500</v>
       </c>
       <c r="H72" s="3">
-        <v>-20200</v>
+        <v>-19100</v>
       </c>
       <c r="I72" s="3">
-        <v>-20100</v>
+        <v>-19000</v>
       </c>
       <c r="J72" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-20000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-19100</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-18400</v>
       </c>
       <c r="M72" s="3">
         <v>-18400</v>
       </c>
       <c r="N72" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="O72" s="3">
         <v>-17500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-18100</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-17800</v>
       </c>
       <c r="Q72" s="3">
         <v>-17800</v>
       </c>
       <c r="R72" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="S72" s="3">
         <v>-17700</v>
       </c>
       <c r="T72" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="U72" s="3">
         <v>-18200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-18100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,31 +4726,34 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="E76" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="F76" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="G76" s="3">
-        <v>1500</v>
+        <v>3100</v>
       </c>
       <c r="H76" s="3">
         <v>1400</v>
       </c>
       <c r="I76" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="J76" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K76" s="3">
         <v>1600</v>
@@ -4576,37 +4762,40 @@
         <v>1600</v>
       </c>
       <c r="M76" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N76" s="3">
         <v>1700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1500</v>
-      </c>
-      <c r="P76" s="3">
-        <v>1600</v>
       </c>
       <c r="Q76" s="3">
         <v>1600</v>
       </c>
       <c r="R76" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="S76" s="3">
         <v>1700</v>
       </c>
       <c r="T76" s="3">
+        <v>1700</v>
+      </c>
+      <c r="U76" s="3">
         <v>1800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,75 +4856,81 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E80" s="2">
         <v>44255</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44165</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44074</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43982</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43890</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43799</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43708</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43616</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43524</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43434</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43343</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43251</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43159</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43069</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42978</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42886</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42794</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42704</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4743,23 +4938,23 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
-        <v>-100</v>
-      </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
       <c r="K81" s="3">
         <v>-100</v>
       </c>
@@ -4767,11 +4962,11 @@
         <v>-100</v>
       </c>
       <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
-        <v>-100</v>
-      </c>
       <c r="O81" s="3">
         <v>-100</v>
       </c>
@@ -4782,10 +4977,10 @@
         <v>-100</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
@@ -4794,10 +4989,13 @@
         <v>-100</v>
       </c>
       <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,23 +5406,26 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
-        <v>-100</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
-        <v>-100</v>
-      </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
@@ -5216,28 +5433,28 @@
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -5252,10 +5469,13 @@
         <v>0</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,35 +5498,36 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
-        <v>100</v>
-      </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -5326,22 +5547,25 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V91" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E94" s="3">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2200</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,22 +6041,25 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>400</v>
-      </c>
       <c r="F100" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
+        <v>300</v>
+      </c>
+      <c r="G100" s="3">
+        <v>2100</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
@@ -5827,8 +6073,8 @@
       <c r="K100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>-1700</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
-        <v>1600</v>
+        <v>-1600</v>
       </c>
       <c r="G102" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>-100</v>
-      </c>
       <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
-        <v>-100</v>
-      </c>
       <c r="L102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M102" s="3">
         <v>-1300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2000</v>
       </c>
-      <c r="N102" s="3">
-        <v>-100</v>
-      </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="U102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="V102" s="3">
+        <v>100</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GGTHF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GGTHF_QTR_FIN.xlsx
@@ -2911,10 +2911,10 @@
         <v>2000</v>
       </c>
       <c r="F46" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="G46" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="H46" s="3">
         <v>900</v>
@@ -3425,7 +3425,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="E54" s="3">
         <v>3600</v>
@@ -3437,7 +3437,7 @@
         <v>3300</v>
       </c>
       <c r="H54" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="I54" s="3">
         <v>1400</v>
@@ -4475,25 +4475,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-19800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-19700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-19600</v>
       </c>
-      <c r="G72" s="3">
-        <v>-19500</v>
-      </c>
       <c r="H72" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="I72" s="3">
         <v>-19100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-19000</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-18900</v>
       </c>
       <c r="K72" s="3">
         <v>-20000</v>
@@ -4738,13 +4738,13 @@
         <v>3800</v>
       </c>
       <c r="E76" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="F76" s="3">
         <v>3400</v>
       </c>
       <c r="G76" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="H76" s="3">
         <v>1400</v>

--- a/AAII_Financials/Quarterly/GGTHF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GGTHF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>GGTHF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,107 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44439</v>
+      </c>
+      <c r="F7" s="2">
         <v>44347</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44255</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44165</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44074</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43982</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43890</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43799</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43708</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43616</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43524</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43434</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43343</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43251</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43159</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43069</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42978</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42886</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42794</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42704</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,8 +829,14 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -860,14 +873,14 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
+      <c r="Q9" s="3">
+        <v>0</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
@@ -887,8 +900,14 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -925,14 +944,14 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
+      <c r="Q10" s="3">
+        <v>0</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
@@ -952,8 +971,14 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +1002,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1069,14 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1140,14 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1163,17 +1202,23 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1222,23 +1267,29 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1310,10 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1268,41 +1321,41 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>100</v>
-      </c>
       <c r="M17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
-        <v>100</v>
-      </c>
-      <c r="P17" s="3">
-        <v>100</v>
-      </c>
       <c r="Q17" s="3">
         <v>100</v>
       </c>
@@ -1310,22 +1363,28 @@
         <v>100</v>
       </c>
       <c r="S17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T17" s="3">
         <v>100</v>
       </c>
       <c r="U17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V17" s="3">
         <v>100</v>
       </c>
       <c r="W17" s="3">
+        <v>100</v>
+      </c>
+      <c r="X17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,41 +1392,41 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-100</v>
-      </c>
       <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-100</v>
-      </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
@@ -1375,22 +1434,28 @@
         <v>-100</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
       </c>
       <c r="U18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V18" s="3">
         <v>-100</v>
       </c>
       <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1479,10 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1423,41 +1490,41 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1477,10 +1544,16 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,41 +1561,41 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-100</v>
-      </c>
       <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-100</v>
-      </c>
       <c r="M21" s="3">
         <v>-100</v>
       </c>
       <c r="N21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P21" s="3">
         <v>200</v>
       </c>
-      <c r="O21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q21" s="3">
         <v>-100</v>
       </c>
@@ -1530,22 +1603,28 @@
         <v>-100</v>
       </c>
       <c r="S21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T21" s="3">
         <v>-100</v>
       </c>
       <c r="U21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V21" s="3">
         <v>-100</v>
       </c>
       <c r="W21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,8 +1688,14 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1618,41 +1703,41 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-100</v>
-      </c>
       <c r="M23" s="3">
         <v>-100</v>
       </c>
       <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
@@ -1660,22 +1745,28 @@
         <v>-100</v>
       </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
       </c>
       <c r="U23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V23" s="3">
         <v>-100</v>
       </c>
       <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1830,14 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,8 +1901,14 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1813,41 +1916,41 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
-      </c>
       <c r="M26" s="3">
         <v>-100</v>
       </c>
       <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
@@ -1855,22 +1958,28 @@
         <v>-100</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
       <c r="U26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V26" s="3">
         <v>-100</v>
       </c>
       <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1878,41 +1987,41 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
       <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
-      </c>
       <c r="M27" s="3">
         <v>-100</v>
       </c>
       <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
@@ -1920,22 +2029,28 @@
         <v>-100</v>
       </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
       <c r="U27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V27" s="3">
         <v>-100</v>
       </c>
       <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2114,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2185,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2256,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2327,14 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2203,41 +2342,41 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2257,10 +2396,16 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2268,41 +2413,41 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
       <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
-      </c>
       <c r="M33" s="3">
         <v>-100</v>
       </c>
       <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
@@ -2310,22 +2455,28 @@
         <v>-100</v>
       </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
       <c r="U33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V33" s="3">
         <v>-100</v>
       </c>
       <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,8 +2540,14 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2398,41 +2555,41 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
       <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
-      </c>
       <c r="M35" s="3">
         <v>-100</v>
       </c>
       <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
@@ -2440,92 +2597,104 @@
         <v>-100</v>
       </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
       <c r="U35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V35" s="3">
         <v>-100</v>
       </c>
       <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44439</v>
+      </c>
+      <c r="F38" s="2">
         <v>44347</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44255</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44165</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44074</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43982</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43890</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43799</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43708</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43616</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43524</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43434</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43343</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43251</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43159</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43069</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42978</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42886</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42794</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42704</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2718,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2745,10 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2586,38 +2759,38 @@
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>200</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>1800</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2000</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
@@ -2625,13 +2798,13 @@
         <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
         <v>100</v>
       </c>
       <c r="U41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
         <v>100</v>
@@ -2639,34 +2812,40 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F42" s="3">
         <v>1700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>1800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>2000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>700</v>
-      </c>
-      <c r="J42" s="3">
-        <v>800</v>
-      </c>
-      <c r="K42" s="3">
-        <v>800</v>
       </c>
       <c r="L42" s="3">
         <v>800</v>
@@ -2674,20 +2853,20 @@
       <c r="M42" s="3">
         <v>800</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>4</v>
+      <c r="N42" s="3">
+        <v>800</v>
+      </c>
+      <c r="O42" s="3">
+        <v>800</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2704,8 +2883,14 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2716,10 +2901,10 @@
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -2728,16 +2913,16 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2769,8 +2954,14 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +3025,14 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2855,13 +3052,13 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2899,50 +3096,56 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F46" s="3">
         <v>1900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2100</v>
       </c>
-      <c r="O46" s="3">
-        <v>100</v>
-      </c>
-      <c r="P46" s="3">
-        <v>100</v>
-      </c>
       <c r="Q46" s="3">
         <v>100</v>
       </c>
@@ -2964,8 +3167,14 @@
       <c r="W46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,73 +3238,85 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F48" s="3">
         <v>2000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>500</v>
-      </c>
-      <c r="L48" s="3">
-        <v>200</v>
-      </c>
-      <c r="M48" s="3">
-        <v>200</v>
       </c>
       <c r="N48" s="3">
         <v>200</v>
       </c>
       <c r="O48" s="3">
+        <v>200</v>
+      </c>
+      <c r="P48" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q48" s="3">
         <v>1900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>2100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>2100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>2200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>2200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3380,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3451,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3522,14 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3593,14 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,52 +3664,58 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F54" s="3">
         <v>4000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1500</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1700</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1700</v>
       </c>
       <c r="M54" s="3">
         <v>1700</v>
       </c>
       <c r="N54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P54" s="3">
         <v>2200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1900</v>
-      </c>
-      <c r="P54" s="3">
-        <v>2100</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>2100</v>
       </c>
       <c r="R54" s="3">
         <v>2100</v>
@@ -3473,19 +3724,25 @@
         <v>2100</v>
       </c>
       <c r="T54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="U54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="V54" s="3">
         <v>2200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>2300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>2300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3766,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,50 +3793,52 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
@@ -3599,8 +3860,14 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,8 +3931,14 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3703,10 +3976,10 @@
         <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="P59" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="Q59" s="3">
         <v>500</v>
@@ -3718,19 +3991,25 @@
         <v>500</v>
       </c>
       <c r="T59" s="3">
+        <v>500</v>
+      </c>
+      <c r="U59" s="3">
+        <v>500</v>
+      </c>
+      <c r="V59" s="3">
         <v>400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3738,19 +4017,19 @@
         <v>200</v>
       </c>
       <c r="E60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F60" s="3">
         <v>200</v>
       </c>
       <c r="G60" s="3">
+        <v>100</v>
+      </c>
+      <c r="H60" s="3">
         <v>200</v>
       </c>
-      <c r="H60" s="3">
-        <v>100</v>
-      </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
@@ -3765,37 +4044,43 @@
         <v>100</v>
       </c>
       <c r="N60" s="3">
+        <v>100</v>
+      </c>
+      <c r="O60" s="3">
+        <v>100</v>
+      </c>
+      <c r="P60" s="3">
         <v>500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>600</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>500</v>
-      </c>
-      <c r="R60" s="3">
-        <v>500</v>
       </c>
       <c r="S60" s="3">
         <v>500</v>
       </c>
       <c r="T60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="U60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="V60" s="3">
         <v>400</v>
       </c>
       <c r="W60" s="3">
+        <v>400</v>
+      </c>
+      <c r="X60" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4144,14 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3903,20 +4194,20 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3">
-        <v>100</v>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V62" s="3">
         <v>100</v>
@@ -3924,8 +4215,14 @@
       <c r="W62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4286,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4357,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,8 +4428,14 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4128,19 +4443,19 @@
         <v>200</v>
       </c>
       <c r="E66" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F66" s="3">
         <v>200</v>
       </c>
       <c r="G66" s="3">
+        <v>100</v>
+      </c>
+      <c r="H66" s="3">
         <v>200</v>
       </c>
-      <c r="H66" s="3">
-        <v>100</v>
-      </c>
       <c r="I66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J66" s="3">
         <v>100</v>
@@ -4155,19 +4470,19 @@
         <v>100</v>
       </c>
       <c r="N66" s="3">
+        <v>100</v>
+      </c>
+      <c r="O66" s="3">
+        <v>100</v>
+      </c>
+      <c r="P66" s="3">
         <v>500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>600</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>500</v>
-      </c>
-      <c r="R66" s="3">
-        <v>500</v>
       </c>
       <c r="S66" s="3">
         <v>500</v>
@@ -4176,16 +4491,22 @@
         <v>500</v>
       </c>
       <c r="U66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="V66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="W66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4530,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4597,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4668,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4739,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4810,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="M72" s="3">
         <v>-20000</v>
       </c>
-      <c r="E72" s="3">
-        <v>-19800</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-19700</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-19600</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-19200</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="N72" s="3">
         <v>-19100</v>
       </c>
-      <c r="J72" s="3">
-        <v>-19000</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-20000</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-19100</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-18400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-18400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-17500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-17800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-17800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-17700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-17700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-18200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-18100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4952,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5023,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +5094,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3800</v>
+        <v>3400</v>
       </c>
       <c r="E76" s="3">
         <v>3500</v>
       </c>
       <c r="F76" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G76" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H76" s="3">
         <v>3400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>3200</v>
-      </c>
-      <c r="H76" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I76" s="3">
-        <v>1300</v>
       </c>
       <c r="J76" s="3">
         <v>1400</v>
       </c>
       <c r="K76" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="L76" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="M76" s="3">
         <v>1600</v>
       </c>
       <c r="N76" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O76" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P76" s="3">
         <v>1700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,78 +5236,90 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44439</v>
+      </c>
+      <c r="F80" s="2">
         <v>44347</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44255</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44165</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44074</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43982</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43890</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43799</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43708</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43616</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43524</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43434</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43343</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43251</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43159</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43069</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42978</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42886</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42794</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42704</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4938,41 +5327,41 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
       <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
-      </c>
       <c r="M81" s="3">
         <v>-100</v>
       </c>
       <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
@@ -4980,22 +5369,28 @@
         <v>-100</v>
       </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
       <c r="U81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V81" s="3">
         <v>-100</v>
       </c>
       <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5414,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5481,14 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5552,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5623,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5694,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5765,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5836,14 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5418,49 +5851,49 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>-200</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
@@ -5472,10 +5905,16 @@
         <v>0</v>
       </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,41 +5938,43 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-200</v>
       </c>
       <c r="F91" s="3">
         <v>-500</v>
       </c>
       <c r="G91" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
@@ -5550,7 +5991,7 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5564,8 +6005,14 @@
       <c r="W91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6076,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,50 +6147,56 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-1900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>100</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>100</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>2200</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>100</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -5759,8 +6218,14 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6249,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6316,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6387,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6458,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,29 +6529,35 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>2100</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>4</v>
       </c>
@@ -6076,11 +6567,11 @@
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -6109,8 +6600,14 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6671,14 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6183,41 +6686,41 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-1600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O102" s="3">
         <v>-1300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>2000</v>
       </c>
-      <c r="O102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
       <c r="Q102" s="3">
         <v>-100</v>
       </c>
@@ -6225,18 +6728,24 @@
         <v>100</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T102" s="3">
         <v>100</v>
       </c>
       <c r="U102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V102" s="3">
         <v>100</v>
       </c>
       <c r="W102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GGTHF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GGTHF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>GGTHF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,111 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E7" s="2">
         <v>44530</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44439</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44347</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44255</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44165</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44074</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43982</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43890</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43799</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43708</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43616</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43524</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43434</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43343</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43251</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43159</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43069</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42978</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42886</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42794</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42704</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -835,8 +839,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -879,11 +886,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
@@ -906,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,11 +960,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>4</v>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1208,8 +1228,8 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1273,14 +1296,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>4</v>
+      <c r="U15" s="3">
+        <v>0</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
+      <c r="W15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,8 +1338,9 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1321,44 +1348,44 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
       <c r="K17" s="3">
         <v>100</v>
       </c>
       <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
       </c>
       <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
-        <v>100</v>
-      </c>
       <c r="R17" s="3">
         <v>100</v>
       </c>
@@ -1369,10 +1396,10 @@
         <v>100</v>
       </c>
       <c r="U17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W17" s="3">
         <v>100</v>
@@ -1381,10 +1408,13 @@
         <v>100</v>
       </c>
       <c r="Y17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1392,44 +1422,44 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
       </c>
       <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
-        <v>-100</v>
-      </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
       <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
       <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
-      </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
@@ -1440,10 +1470,10 @@
         <v>-100</v>
       </c>
       <c r="U18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W18" s="3">
         <v>-100</v>
@@ -1452,10 +1482,13 @@
         <v>-100</v>
       </c>
       <c r="Y18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1490,11 +1524,11 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1502,11 +1536,11 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1514,20 +1548,20 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1550,10 +1584,13 @@
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1561,32 +1598,32 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
-        <v>-100</v>
-      </c>
       <c r="G21" s="3">
         <v>-100</v>
       </c>
       <c r="H21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
-        <v>-100</v>
-      </c>
       <c r="K21" s="3">
         <v>-100</v>
       </c>
       <c r="L21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
-        <v>-100</v>
-      </c>
       <c r="N21" s="3">
         <v>-100</v>
       </c>
@@ -1594,11 +1631,11 @@
         <v>-100</v>
       </c>
       <c r="P21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>200</v>
       </c>
-      <c r="Q21" s="3">
-        <v>-100</v>
-      </c>
       <c r="R21" s="3">
         <v>-100</v>
       </c>
@@ -1609,10 +1646,10 @@
         <v>-100</v>
       </c>
       <c r="U21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W21" s="3">
         <v>-100</v>
@@ -1621,10 +1658,13 @@
         <v>-100</v>
       </c>
       <c r="Y21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1694,8 +1734,11 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1703,32 +1746,32 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
-        <v>-100</v>
-      </c>
       <c r="G23" s="3">
         <v>-100</v>
       </c>
       <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
-        <v>-100</v>
-      </c>
       <c r="K23" s="3">
         <v>-100</v>
       </c>
       <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
-        <v>-100</v>
-      </c>
       <c r="N23" s="3">
         <v>-100</v>
       </c>
@@ -1736,11 +1779,11 @@
         <v>-100</v>
       </c>
       <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
-      </c>
       <c r="R23" s="3">
         <v>-100</v>
       </c>
@@ -1751,10 +1794,10 @@
         <v>-100</v>
       </c>
       <c r="U23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W23" s="3">
         <v>-100</v>
@@ -1763,10 +1806,13 @@
         <v>-100</v>
       </c>
       <c r="Y23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,8 +1956,11 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1916,32 +1968,32 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
-        <v>-100</v>
-      </c>
       <c r="G26" s="3">
         <v>-100</v>
       </c>
       <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
-        <v>-100</v>
-      </c>
       <c r="K26" s="3">
         <v>-100</v>
       </c>
       <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
-        <v>-100</v>
-      </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
@@ -1949,11 +2001,11 @@
         <v>-100</v>
       </c>
       <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
-      </c>
       <c r="R26" s="3">
         <v>-100</v>
       </c>
@@ -1964,10 +2016,10 @@
         <v>-100</v>
       </c>
       <c r="U26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W26" s="3">
         <v>-100</v>
@@ -1976,10 +2028,13 @@
         <v>-100</v>
       </c>
       <c r="Y26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1987,32 +2042,32 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
-        <v>-100</v>
-      </c>
       <c r="G27" s="3">
         <v>-100</v>
       </c>
       <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
-        <v>-100</v>
-      </c>
       <c r="K27" s="3">
         <v>-100</v>
       </c>
       <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
-        <v>-100</v>
-      </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
@@ -2020,11 +2075,11 @@
         <v>-100</v>
       </c>
       <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
-      </c>
       <c r="R27" s="3">
         <v>-100</v>
       </c>
@@ -2035,10 +2090,10 @@
         <v>-100</v>
       </c>
       <c r="U27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W27" s="3">
         <v>-100</v>
@@ -2047,10 +2102,13 @@
         <v>-100</v>
       </c>
       <c r="Y27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2342,11 +2412,11 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2354,11 +2424,11 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2366,20 +2436,20 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2402,10 +2472,13 @@
         <v>0</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2413,32 +2486,32 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
-        <v>-100</v>
-      </c>
       <c r="G33" s="3">
         <v>-100</v>
       </c>
       <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
       <c r="K33" s="3">
         <v>-100</v>
       </c>
       <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
-        <v>-100</v>
-      </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
@@ -2446,11 +2519,11 @@
         <v>-100</v>
       </c>
       <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
-      </c>
       <c r="R33" s="3">
         <v>-100</v>
       </c>
@@ -2461,10 +2534,10 @@
         <v>-100</v>
       </c>
       <c r="U33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W33" s="3">
         <v>-100</v>
@@ -2473,10 +2546,13 @@
         <v>-100</v>
       </c>
       <c r="Y33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,8 +2622,11 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2555,32 +2634,32 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
-        <v>-100</v>
-      </c>
       <c r="G35" s="3">
         <v>-100</v>
       </c>
       <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
       <c r="K35" s="3">
         <v>-100</v>
       </c>
       <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
-        <v>-100</v>
-      </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
@@ -2588,11 +2667,11 @@
         <v>-100</v>
       </c>
       <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
-      </c>
       <c r="R35" s="3">
         <v>-100</v>
       </c>
@@ -2603,10 +2682,10 @@
         <v>-100</v>
       </c>
       <c r="U35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W35" s="3">
         <v>-100</v>
@@ -2615,86 +2694,92 @@
         <v>-100</v>
       </c>
       <c r="Y35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E38" s="2">
         <v>44530</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44439</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44347</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44255</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44165</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44074</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43982</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43890</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43799</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43708</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43616</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43524</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43434</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43343</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43251</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43159</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43069</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42978</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42886</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42794</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42704</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,13 +2833,14 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -2765,43 +2852,43 @@
         <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
-        <v>1800</v>
-      </c>
       <c r="J41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2000</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
         <v>100</v>
@@ -2810,45 +2897,48 @@
         <v>100</v>
       </c>
       <c r="W41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E42" s="3">
+        <v>800</v>
+      </c>
+      <c r="F42" s="3">
         <v>1300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2000</v>
-      </c>
-      <c r="I42" s="3">
-        <v>600</v>
       </c>
       <c r="J42" s="3">
         <v>600</v>
       </c>
       <c r="K42" s="3">
+        <v>600</v>
+      </c>
+      <c r="L42" s="3">
         <v>700</v>
-      </c>
-      <c r="L42" s="3">
-        <v>800</v>
       </c>
       <c r="M42" s="3">
         <v>800</v>
@@ -2859,8 +2949,8 @@
       <c r="O42" s="3">
         <v>800</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>4</v>
+      <c r="P42" s="3">
+        <v>800</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>4</v>
@@ -2868,8 +2958,8 @@
       <c r="R42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -2889,8 +2979,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2907,7 +3000,7 @@
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -2919,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2960,8 +3053,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3058,10 +3157,10 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -3102,53 +3201,56 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1100</v>
       </c>
-      <c r="E46" s="3">
-        <v>1600</v>
-      </c>
       <c r="F46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G46" s="3">
         <v>1900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2000</v>
       </c>
-      <c r="H46" s="3">
-        <v>2300</v>
-      </c>
       <c r="I46" s="3">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="J46" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2100</v>
       </c>
-      <c r="Q46" s="3">
-        <v>100</v>
-      </c>
       <c r="R46" s="3">
         <v>100</v>
       </c>
@@ -3173,8 +3275,11 @@
       <c r="Y46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,8 +3349,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3253,34 +3361,34 @@
         <v>2500</v>
       </c>
       <c r="E48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F48" s="3">
         <v>2200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2000</v>
       </c>
-      <c r="G48" s="3">
-        <v>1600</v>
-      </c>
       <c r="H48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I48" s="3">
         <v>1300</v>
       </c>
-      <c r="I48" s="3">
-        <v>900</v>
-      </c>
       <c r="J48" s="3">
+        <v>800</v>
+      </c>
+      <c r="K48" s="3">
         <v>700</v>
-      </c>
-      <c r="K48" s="3">
-        <v>600</v>
       </c>
       <c r="L48" s="3">
         <v>600</v>
       </c>
       <c r="M48" s="3">
+        <v>600</v>
+      </c>
+      <c r="N48" s="3">
         <v>500</v>
-      </c>
-      <c r="N48" s="3">
-        <v>200</v>
       </c>
       <c r="O48" s="3">
         <v>200</v>
@@ -3289,34 +3397,37 @@
         <v>200</v>
       </c>
       <c r="Q48" s="3">
-        <v>1900</v>
+        <v>200</v>
       </c>
       <c r="R48" s="3">
         <v>1900</v>
       </c>
       <c r="S48" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="T48" s="3">
         <v>2000</v>
       </c>
       <c r="U48" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="V48" s="3">
         <v>2100</v>
       </c>
       <c r="W48" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="X48" s="3">
         <v>2200</v>
       </c>
       <c r="Y48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Z48" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,40 +3793,43 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="E54" s="3">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="F54" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="G54" s="3">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="H54" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="I54" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J54" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K54" s="3">
         <v>1600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1500</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1700</v>
       </c>
       <c r="N54" s="3">
         <v>1700</v>
@@ -3712,13 +3838,13 @@
         <v>1700</v>
       </c>
       <c r="P54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q54" s="3">
         <v>2200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1900</v>
-      </c>
-      <c r="R54" s="3">
-        <v>2100</v>
       </c>
       <c r="S54" s="3">
         <v>2100</v>
@@ -3730,19 +3856,22 @@
         <v>2100</v>
       </c>
       <c r="V54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="W54" s="3">
         <v>2200</v>
-      </c>
-      <c r="W54" s="3">
-        <v>2300</v>
       </c>
       <c r="X54" s="3">
         <v>2300</v>
       </c>
       <c r="Y54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Z54" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,31 +3925,32 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -3828,20 +3959,20 @@
         <v>0</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
       <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
       <c r="R57" s="3">
         <v>0</v>
       </c>
@@ -3866,8 +3997,11 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3937,8 +4071,11 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3982,7 +4119,7 @@
         <v>100</v>
       </c>
       <c r="Q59" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="R59" s="3">
         <v>500</v>
@@ -3997,42 +4134,45 @@
         <v>500</v>
       </c>
       <c r="V59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="W59" s="3">
         <v>400</v>
       </c>
       <c r="X59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Y59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>100</v>
+      </c>
+      <c r="E60" s="3">
         <v>200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>200</v>
       </c>
-      <c r="G60" s="3">
-        <v>100</v>
-      </c>
       <c r="H60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
       </c>
       <c r="J60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
@@ -4050,16 +4190,16 @@
         <v>100</v>
       </c>
       <c r="P60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q60" s="3">
         <v>500</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>600</v>
       </c>
       <c r="R60" s="3">
         <v>600</v>
       </c>
       <c r="S60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T60" s="3">
         <v>500</v>
@@ -4068,7 +4208,7 @@
         <v>500</v>
       </c>
       <c r="V60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="W60" s="3">
         <v>400</v>
@@ -4077,10 +4217,13 @@
         <v>400</v>
       </c>
       <c r="Y60" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4150,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4200,17 +4346,17 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
+      <c r="S62" s="3">
+        <v>0</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W62" s="3">
         <v>100</v>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,31 +4589,34 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>100</v>
+      </c>
+      <c r="E66" s="3">
         <v>200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>200</v>
       </c>
-      <c r="G66" s="3">
-        <v>100</v>
-      </c>
       <c r="H66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I66" s="3">
         <v>200</v>
       </c>
       <c r="J66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K66" s="3">
         <v>100</v>
@@ -4476,16 +4634,16 @@
         <v>100</v>
       </c>
       <c r="P66" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q66" s="3">
         <v>500</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>600</v>
       </c>
       <c r="R66" s="3">
         <v>600</v>
       </c>
       <c r="S66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T66" s="3">
         <v>500</v>
@@ -4497,7 +4655,7 @@
         <v>500</v>
       </c>
       <c r="W66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="X66" s="3">
         <v>400</v>
@@ -4505,8 +4663,11 @@
       <c r="Y66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-20300</v>
+        <v>-20000</v>
       </c>
       <c r="E72" s="3">
-        <v>-20200</v>
+        <v>-19900</v>
       </c>
       <c r="F72" s="3">
-        <v>-19900</v>
+        <v>-19800</v>
       </c>
       <c r="G72" s="3">
-        <v>-19800</v>
+        <v>-19500</v>
       </c>
       <c r="H72" s="3">
-        <v>-19700</v>
+        <v>-19400</v>
       </c>
       <c r="I72" s="3">
-        <v>-19600</v>
+        <v>-19300</v>
       </c>
       <c r="J72" s="3">
         <v>-19200</v>
       </c>
       <c r="K72" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="L72" s="3">
         <v>-19100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-19000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-20000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-19100</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-18400</v>
       </c>
       <c r="P72" s="3">
         <v>-18400</v>
       </c>
       <c r="Q72" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="R72" s="3">
         <v>-17500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-18100</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-17800</v>
       </c>
       <c r="T72" s="3">
         <v>-17800</v>
       </c>
       <c r="U72" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="V72" s="3">
         <v>-17700</v>
       </c>
       <c r="W72" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="X72" s="3">
         <v>-18200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-18100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,40 +5283,43 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F76" s="3">
         <v>3400</v>
       </c>
-      <c r="E76" s="3">
-        <v>3500</v>
-      </c>
-      <c r="F76" s="3">
-        <v>3800</v>
-      </c>
       <c r="G76" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="H76" s="3">
         <v>3400</v>
       </c>
       <c r="I76" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="J76" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K76" s="3">
         <v>1400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1400</v>
-      </c>
-      <c r="M76" s="3">
-        <v>1600</v>
       </c>
       <c r="N76" s="3">
         <v>1600</v>
@@ -5142,37 +5328,40 @@
         <v>1600</v>
       </c>
       <c r="P76" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q76" s="3">
         <v>1700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1500</v>
-      </c>
-      <c r="S76" s="3">
-        <v>1600</v>
       </c>
       <c r="T76" s="3">
         <v>1600</v>
       </c>
       <c r="U76" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="V76" s="3">
         <v>1700</v>
       </c>
       <c r="W76" s="3">
+        <v>1700</v>
+      </c>
+      <c r="X76" s="3">
         <v>1800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,84 +5431,90 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E80" s="2">
         <v>44530</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44439</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44347</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44255</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44165</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44074</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43982</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43890</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43799</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43708</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43616</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43524</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43434</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43343</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43251</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43159</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43069</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42978</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42886</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42794</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42704</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5327,32 +5522,32 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
-        <v>-100</v>
-      </c>
       <c r="G81" s="3">
         <v>-100</v>
       </c>
       <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
       <c r="K81" s="3">
         <v>-100</v>
       </c>
       <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
-        <v>-100</v>
-      </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
@@ -5360,11 +5555,11 @@
         <v>-100</v>
       </c>
       <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
-      </c>
       <c r="R81" s="3">
         <v>-100</v>
       </c>
@@ -5375,10 +5570,10 @@
         <v>-100</v>
       </c>
       <c r="U81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W81" s="3">
         <v>-100</v>
@@ -5387,10 +5582,13 @@
         <v>-100</v>
       </c>
       <c r="Y81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6056,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5851,23 +6068,23 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
-        <v>-100</v>
-      </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
@@ -5875,28 +6092,28 @@
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
@@ -5911,10 +6128,13 @@
         <v>0</v>
       </c>
       <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,44 +6160,45 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-500</v>
       </c>
       <c r="F91" s="3">
         <v>-500</v>
       </c>
       <c r="G91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
-        <v>100</v>
-      </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
@@ -5997,22 +6218,25 @@
         <v>0</v>
       </c>
       <c r="U91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y91" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>200</v>
       </c>
-      <c r="E94" s="3">
-        <v>-100</v>
-      </c>
       <c r="F94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
-        <v>-1900</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>2200</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +6778,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6547,19 +6793,19 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
+      <c r="J100" s="3">
+        <v>2000</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
@@ -6573,8 +6819,8 @@
       <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -6606,8 +6852,11 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,13 +6926,16 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -6692,60 +6944,63 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-1600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
-        <v>-100</v>
-      </c>
       <c r="L102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
-        <v>-100</v>
-      </c>
       <c r="O102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P102" s="3">
         <v>-1300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2000</v>
       </c>
-      <c r="Q102" s="3">
-        <v>-100</v>
-      </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="S102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="X102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Y102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GGTHF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GGTHF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>GGTHF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E7" s="2">
         <v>44620</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44530</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44439</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44347</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44255</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44165</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44074</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43982</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43890</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43799</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43708</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43616</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43524</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43434</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43343</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43251</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43159</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43069</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42978</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42886</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42794</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42704</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -842,8 +846,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -889,11 +896,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>4</v>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,11 +973,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1231,8 +1251,8 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1299,14 +1322,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>4</v>
+      <c r="V15" s="3">
+        <v>0</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
+      <c r="X15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,8 +1365,9 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1351,44 +1378,44 @@
         <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
-        <v>100</v>
-      </c>
       <c r="L17" s="3">
         <v>100</v>
       </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
       </c>
       <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
-        <v>100</v>
-      </c>
       <c r="S17" s="3">
         <v>100</v>
       </c>
@@ -1399,10 +1426,10 @@
         <v>100</v>
       </c>
       <c r="V17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X17" s="3">
         <v>100</v>
@@ -1411,10 +1438,13 @@
         <v>100</v>
       </c>
       <c r="Z17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1425,44 +1455,44 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
-        <v>-100</v>
-      </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
       <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
-        <v>-100</v>
-      </c>
       <c r="S18" s="3">
         <v>-100</v>
       </c>
@@ -1473,10 +1503,10 @@
         <v>-100</v>
       </c>
       <c r="V18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X18" s="3">
         <v>-100</v>
@@ -1485,10 +1515,13 @@
         <v>-100</v>
       </c>
       <c r="Z18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1527,11 +1561,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1539,11 +1573,11 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1551,20 +1585,20 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>400</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1587,10 +1621,13 @@
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1601,32 +1638,32 @@
         <v>-100</v>
       </c>
       <c r="F21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
-        <v>-100</v>
-      </c>
       <c r="H21" s="3">
         <v>-100</v>
       </c>
       <c r="I21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
-        <v>-100</v>
-      </c>
       <c r="L21" s="3">
         <v>-100</v>
       </c>
       <c r="M21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
-        <v>-100</v>
-      </c>
       <c r="O21" s="3">
         <v>-100</v>
       </c>
@@ -1634,11 +1671,11 @@
         <v>-100</v>
       </c>
       <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R21" s="3">
         <v>200</v>
       </c>
-      <c r="R21" s="3">
-        <v>-100</v>
-      </c>
       <c r="S21" s="3">
         <v>-100</v>
       </c>
@@ -1649,10 +1686,10 @@
         <v>-100</v>
       </c>
       <c r="V21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X21" s="3">
         <v>-100</v>
@@ -1661,10 +1698,13 @@
         <v>-100</v>
       </c>
       <c r="Z21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,8 +1777,11 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1749,32 +1792,32 @@
         <v>-100</v>
       </c>
       <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
-        <v>-100</v>
-      </c>
       <c r="H23" s="3">
         <v>-100</v>
       </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
-        <v>-100</v>
-      </c>
       <c r="L23" s="3">
         <v>-100</v>
       </c>
       <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
-        <v>-100</v>
-      </c>
       <c r="O23" s="3">
         <v>-100</v>
       </c>
@@ -1782,11 +1825,11 @@
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
         <v>200</v>
       </c>
-      <c r="R23" s="3">
-        <v>-100</v>
-      </c>
       <c r="S23" s="3">
         <v>-100</v>
       </c>
@@ -1797,10 +1840,10 @@
         <v>-100</v>
       </c>
       <c r="V23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X23" s="3">
         <v>-100</v>
@@ -1809,10 +1852,13 @@
         <v>-100</v>
       </c>
       <c r="Z23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,8 +2008,11 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1971,32 +2023,32 @@
         <v>-100</v>
       </c>
       <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
-        <v>-100</v>
-      </c>
       <c r="H26" s="3">
         <v>-100</v>
       </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
-        <v>-100</v>
-      </c>
       <c r="L26" s="3">
         <v>-100</v>
       </c>
       <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
-        <v>-100</v>
-      </c>
       <c r="O26" s="3">
         <v>-100</v>
       </c>
@@ -2004,11 +2056,11 @@
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>200</v>
       </c>
-      <c r="R26" s="3">
-        <v>-100</v>
-      </c>
       <c r="S26" s="3">
         <v>-100</v>
       </c>
@@ -2019,10 +2071,10 @@
         <v>-100</v>
       </c>
       <c r="V26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X26" s="3">
         <v>-100</v>
@@ -2031,10 +2083,13 @@
         <v>-100</v>
       </c>
       <c r="Z26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2045,32 +2100,32 @@
         <v>-100</v>
       </c>
       <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
-        <v>-100</v>
-      </c>
       <c r="H27" s="3">
         <v>-100</v>
       </c>
       <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
-        <v>-100</v>
-      </c>
       <c r="L27" s="3">
         <v>-100</v>
       </c>
       <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
-        <v>-100</v>
-      </c>
       <c r="O27" s="3">
         <v>-100</v>
       </c>
@@ -2078,11 +2133,11 @@
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="R27" s="3">
-        <v>-100</v>
-      </c>
       <c r="S27" s="3">
         <v>-100</v>
       </c>
@@ -2093,10 +2148,10 @@
         <v>-100</v>
       </c>
       <c r="V27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X27" s="3">
         <v>-100</v>
@@ -2105,10 +2160,13 @@
         <v>-100</v>
       </c>
       <c r="Z27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2415,11 +2485,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2427,11 +2497,11 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2439,20 +2509,20 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2475,10 +2545,13 @@
         <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2489,32 +2562,32 @@
         <v>-100</v>
       </c>
       <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
-        <v>-100</v>
-      </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
-        <v>-100</v>
-      </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
       <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
-        <v>-100</v>
-      </c>
       <c r="O33" s="3">
         <v>-100</v>
       </c>
@@ -2522,11 +2595,11 @@
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="R33" s="3">
-        <v>-100</v>
-      </c>
       <c r="S33" s="3">
         <v>-100</v>
       </c>
@@ -2537,10 +2610,10 @@
         <v>-100</v>
       </c>
       <c r="V33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X33" s="3">
         <v>-100</v>
@@ -2549,10 +2622,13 @@
         <v>-100</v>
       </c>
       <c r="Z33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,8 +2701,11 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2637,32 +2716,32 @@
         <v>-100</v>
       </c>
       <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
-        <v>-100</v>
-      </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
-        <v>-100</v>
-      </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
       <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
-        <v>-100</v>
-      </c>
       <c r="O35" s="3">
         <v>-100</v>
       </c>
@@ -2670,11 +2749,11 @@
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
         <v>200</v>
       </c>
-      <c r="R35" s="3">
-        <v>-100</v>
-      </c>
       <c r="S35" s="3">
         <v>-100</v>
       </c>
@@ -2685,10 +2764,10 @@
         <v>-100</v>
       </c>
       <c r="V35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X35" s="3">
         <v>-100</v>
@@ -2697,89 +2776,95 @@
         <v>-100</v>
       </c>
       <c r="Z35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E38" s="2">
         <v>44620</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44530</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44439</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44347</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44255</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44165</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44074</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43982</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43890</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43799</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43708</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43616</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43524</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43434</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43343</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43251</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43159</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43069</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42978</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42886</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42794</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42704</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,16 +2920,17 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
@@ -2855,43 +2942,43 @@
         <v>100</v>
       </c>
       <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
       <c r="M41" s="3">
         <v>100</v>
       </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2000</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
         <v>100</v>
@@ -2900,48 +2987,51 @@
         <v>100</v>
       </c>
       <c r="X41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E42" s="3">
         <v>800</v>
       </c>
       <c r="F42" s="3">
+        <v>900</v>
+      </c>
+      <c r="G42" s="3">
         <v>1300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2000</v>
-      </c>
-      <c r="J42" s="3">
-        <v>600</v>
       </c>
       <c r="K42" s="3">
         <v>600</v>
       </c>
       <c r="L42" s="3">
+        <v>600</v>
+      </c>
+      <c r="M42" s="3">
         <v>700</v>
-      </c>
-      <c r="M42" s="3">
-        <v>800</v>
       </c>
       <c r="N42" s="3">
         <v>800</v>
@@ -2952,8 +3042,8 @@
       <c r="P42" s="3">
         <v>800</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>4</v>
+      <c r="Q42" s="3">
+        <v>800</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>4</v>
@@ -2961,8 +3051,8 @@
       <c r="S42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="T42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -2982,13 +3072,16 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -3003,7 +3096,7 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -3015,13 +3108,13 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3160,10 +3259,10 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -3204,8 +3303,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3213,47 +3315,47 @@
         <v>900</v>
       </c>
       <c r="E46" s="3">
+        <v>900</v>
+      </c>
+      <c r="F46" s="3">
         <v>1100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2100</v>
       </c>
-      <c r="R46" s="3">
-        <v>100</v>
-      </c>
       <c r="S46" s="3">
         <v>100</v>
       </c>
@@ -3278,8 +3380,11 @@
       <c r="Z46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,8 +3457,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3361,37 +3469,37 @@
         <v>2500</v>
       </c>
       <c r="E48" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="F48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G48" s="3">
         <v>2200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2000</v>
       </c>
-      <c r="H48" s="3">
-        <v>1500</v>
-      </c>
       <c r="I48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J48" s="3">
         <v>1300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>700</v>
-      </c>
-      <c r="L48" s="3">
-        <v>600</v>
       </c>
       <c r="M48" s="3">
         <v>600</v>
       </c>
       <c r="N48" s="3">
+        <v>600</v>
+      </c>
+      <c r="O48" s="3">
         <v>500</v>
-      </c>
-      <c r="O48" s="3">
-        <v>200</v>
       </c>
       <c r="P48" s="3">
         <v>200</v>
@@ -3400,34 +3508,37 @@
         <v>200</v>
       </c>
       <c r="R48" s="3">
-        <v>1900</v>
+        <v>200</v>
       </c>
       <c r="S48" s="3">
         <v>1900</v>
       </c>
       <c r="T48" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="U48" s="3">
         <v>2000</v>
       </c>
       <c r="V48" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="W48" s="3">
         <v>2100</v>
       </c>
       <c r="X48" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="Y48" s="3">
         <v>2200</v>
       </c>
       <c r="Z48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="AA48" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,8 +3919,11 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3805,34 +3931,34 @@
         <v>3400</v>
       </c>
       <c r="E54" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F54" s="3">
         <v>3500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J54" s="3">
         <v>3500</v>
       </c>
-      <c r="I54" s="3">
-        <v>3500</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1500</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1700</v>
       </c>
       <c r="O54" s="3">
         <v>1700</v>
@@ -3841,13 +3967,13 @@
         <v>1700</v>
       </c>
       <c r="Q54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R54" s="3">
         <v>2200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1900</v>
-      </c>
-      <c r="S54" s="3">
-        <v>2100</v>
       </c>
       <c r="T54" s="3">
         <v>2100</v>
@@ -3859,19 +3985,22 @@
         <v>2100</v>
       </c>
       <c r="W54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="X54" s="3">
         <v>2200</v>
-      </c>
-      <c r="X54" s="3">
-        <v>2300</v>
       </c>
       <c r="Y54" s="3">
         <v>2300</v>
       </c>
       <c r="Z54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="AA54" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,8 +4056,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3935,25 +4066,25 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -3962,20 +4093,20 @@
         <v>0</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
       <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
@@ -4000,8 +4131,11 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4074,8 +4208,11 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4122,7 +4259,7 @@
         <v>100</v>
       </c>
       <c r="R59" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="S59" s="3">
         <v>500</v>
@@ -4137,19 +4274,22 @@
         <v>500</v>
       </c>
       <c r="W59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="X59" s="3">
         <v>400</v>
       </c>
       <c r="Y59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Z59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4157,25 +4297,25 @@
         <v>100</v>
       </c>
       <c r="E60" s="3">
+        <v>100</v>
+      </c>
+      <c r="F60" s="3">
         <v>200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>200</v>
       </c>
-      <c r="H60" s="3">
-        <v>100</v>
-      </c>
       <c r="I60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J60" s="3">
         <v>200</v>
       </c>
       <c r="K60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>100</v>
@@ -4193,16 +4333,16 @@
         <v>100</v>
       </c>
       <c r="Q60" s="3">
+        <v>100</v>
+      </c>
+      <c r="R60" s="3">
         <v>500</v>
-      </c>
-      <c r="R60" s="3">
-        <v>600</v>
       </c>
       <c r="S60" s="3">
         <v>600</v>
       </c>
       <c r="T60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="U60" s="3">
         <v>500</v>
@@ -4211,7 +4351,7 @@
         <v>500</v>
       </c>
       <c r="W60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="X60" s="3">
         <v>400</v>
@@ -4220,10 +4360,13 @@
         <v>400</v>
       </c>
       <c r="Z60" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4296,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4349,17 +4495,17 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
+      <c r="T62" s="3">
+        <v>0</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X62" s="3">
         <v>100</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,8 +4747,11 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4601,25 +4759,25 @@
         <v>100</v>
       </c>
       <c r="E66" s="3">
+        <v>100</v>
+      </c>
+      <c r="F66" s="3">
         <v>200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>200</v>
       </c>
-      <c r="H66" s="3">
-        <v>100</v>
-      </c>
       <c r="I66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J66" s="3">
         <v>200</v>
       </c>
       <c r="K66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L66" s="3">
         <v>100</v>
@@ -4637,16 +4795,16 @@
         <v>100</v>
       </c>
       <c r="Q66" s="3">
+        <v>100</v>
+      </c>
+      <c r="R66" s="3">
         <v>500</v>
-      </c>
-      <c r="R66" s="3">
-        <v>600</v>
       </c>
       <c r="S66" s="3">
         <v>600</v>
       </c>
       <c r="T66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="U66" s="3">
         <v>500</v>
@@ -4658,7 +4816,7 @@
         <v>500</v>
       </c>
       <c r="X66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Y66" s="3">
         <v>400</v>
@@ -4666,8 +4824,11 @@
       <c r="Z66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-20000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-19900</v>
       </c>
-      <c r="F72" s="3">
-        <v>-19800</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-19500</v>
-      </c>
       <c r="H72" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="J72" s="3">
         <v>-19400</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-19300</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-19200</v>
       </c>
       <c r="K72" s="3">
         <v>-19200</v>
       </c>
       <c r="L72" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="M72" s="3">
         <v>-19100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-19000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-20000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-19100</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-18400</v>
       </c>
       <c r="Q72" s="3">
         <v>-18400</v>
       </c>
       <c r="R72" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="S72" s="3">
         <v>-17500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-18100</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-17800</v>
       </c>
       <c r="U72" s="3">
         <v>-17800</v>
       </c>
       <c r="V72" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="W72" s="3">
         <v>-17700</v>
       </c>
       <c r="X72" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-18200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-18100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,13 +5469,16 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="E76" s="3">
         <v>3300</v>
@@ -5301,28 +5487,28 @@
         <v>3400</v>
       </c>
       <c r="G76" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H76" s="3">
         <v>3700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1400</v>
-      </c>
-      <c r="N76" s="3">
-        <v>1600</v>
       </c>
       <c r="O76" s="3">
         <v>1600</v>
@@ -5331,37 +5517,40 @@
         <v>1600</v>
       </c>
       <c r="Q76" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R76" s="3">
         <v>1700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1500</v>
-      </c>
-      <c r="T76" s="3">
-        <v>1600</v>
       </c>
       <c r="U76" s="3">
         <v>1600</v>
       </c>
       <c r="V76" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="W76" s="3">
         <v>1700</v>
       </c>
       <c r="X76" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Y76" s="3">
         <v>1800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,87 +5623,93 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E80" s="2">
         <v>44620</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44530</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44439</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44347</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44255</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44165</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44074</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43982</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43890</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43799</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43708</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43616</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43524</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43434</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43343</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43251</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43159</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43069</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42978</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42886</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42794</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42704</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5525,32 +5720,32 @@
         <v>-100</v>
       </c>
       <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
-        <v>-100</v>
-      </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
-        <v>-100</v>
-      </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
       <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
-        <v>-100</v>
-      </c>
       <c r="O81" s="3">
         <v>-100</v>
       </c>
@@ -5558,11 +5753,11 @@
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
         <v>200</v>
       </c>
-      <c r="R81" s="3">
-        <v>-100</v>
-      </c>
       <c r="S81" s="3">
         <v>-100</v>
       </c>
@@ -5573,10 +5768,10 @@
         <v>-100</v>
       </c>
       <c r="V81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X81" s="3">
         <v>-100</v>
@@ -5585,10 +5780,13 @@
         <v>-100</v>
       </c>
       <c r="Z81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,35 +6273,38 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
-        <v>-100</v>
-      </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
@@ -6095,28 +6312,28 @@
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
       <c r="T89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V89" s="3">
         <v>0</v>
@@ -6131,10 +6348,13 @@
         <v>0</v>
       </c>
       <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,47 +6381,48 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-500</v>
       </c>
       <c r="G91" s="3">
         <v>-500</v>
       </c>
       <c r="H91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
-        <v>100</v>
-      </c>
       <c r="K91" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
@@ -6221,22 +6442,25 @@
         <v>0</v>
       </c>
       <c r="V91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z91" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6392,73 +6622,76 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>200</v>
       </c>
-      <c r="F94" s="3">
-        <v>-100</v>
-      </c>
       <c r="G94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
-        <v>-1800</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>2200</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,13 +7024,16 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -6796,20 +7042,20 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2000</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
@@ -6822,8 +7068,8 @@
       <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -6855,8 +7101,11 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,16 +7178,19 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -6947,60 +7199,63 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-1600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
-        <v>-100</v>
-      </c>
       <c r="M102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
-        <v>-100</v>
-      </c>
       <c r="P102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2000</v>
       </c>
-      <c r="R102" s="3">
-        <v>-100</v>
-      </c>
       <c r="S102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="T102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="U102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Y102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Z102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GGTHF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GGTHF_QTR_FIN.xlsx
@@ -3010,7 +3010,7 @@
         <v>800</v>
       </c>
       <c r="F42" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G42" s="3">
         <v>1300</v>
@@ -3019,10 +3019,10 @@
         <v>1700</v>
       </c>
       <c r="I42" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="J42" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="K42" s="3">
         <v>600</v>
@@ -3318,16 +3318,16 @@
         <v>900</v>
       </c>
       <c r="F46" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G46" s="3">
         <v>1500</v>
       </c>
       <c r="H46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I46" s="3">
         <v>1900</v>
-      </c>
-      <c r="I46" s="3">
-        <v>2000</v>
       </c>
       <c r="J46" s="3">
         <v>2200</v>
@@ -3466,22 +3466,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="E48" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="F48" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="G48" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="H48" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="I48" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="J48" s="3">
         <v>1300</v>
@@ -3928,25 +3928,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F54" s="3">
         <v>3400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I54" s="3">
         <v>3400</v>
       </c>
-      <c r="F54" s="3">
-        <v>3500</v>
-      </c>
-      <c r="G54" s="3">
-        <v>3700</v>
-      </c>
-      <c r="H54" s="3">
-        <v>3900</v>
-      </c>
-      <c r="I54" s="3">
-        <v>3600</v>
-      </c>
       <c r="J54" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="K54" s="3">
         <v>3200</v>
@@ -5170,25 +5170,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-20200</v>
+        <v>-19600</v>
       </c>
       <c r="E72" s="3">
-        <v>-20100</v>
+        <v>-19600</v>
       </c>
       <c r="F72" s="3">
-        <v>-20000</v>
+        <v>-19500</v>
       </c>
       <c r="G72" s="3">
-        <v>-19900</v>
+        <v>-19400</v>
       </c>
       <c r="H72" s="3">
-        <v>-19700</v>
+        <v>-19100</v>
       </c>
       <c r="I72" s="3">
-        <v>-19600</v>
+        <v>-19000</v>
       </c>
       <c r="J72" s="3">
-        <v>-19400</v>
+        <v>-18900</v>
       </c>
       <c r="K72" s="3">
         <v>-19200</v>
@@ -5478,25 +5478,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F76" s="3">
         <v>3300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H76" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I76" s="3">
         <v>3300</v>
       </c>
-      <c r="F76" s="3">
-        <v>3400</v>
-      </c>
-      <c r="G76" s="3">
-        <v>3500</v>
-      </c>
-      <c r="H76" s="3">
-        <v>3700</v>
-      </c>
-      <c r="I76" s="3">
-        <v>3400</v>
-      </c>
       <c r="J76" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="K76" s="3">
         <v>3100</v>
@@ -6400,7 +6400,7 @@
         <v>-500</v>
       </c>
       <c r="H91" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="I91" s="3">
         <v>-200</v>
@@ -6631,13 +6631,13 @@
         <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="K94" s="3">
         <v>-400</v>
@@ -7205,7 +7205,7 @@
         <v>-100</v>
       </c>
       <c r="J102" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="K102" s="3">
         <v>1500</v>

--- a/AAII_Financials/Quarterly/GGTHF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GGTHF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
   <si>
     <t>GGTHF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,122 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44804</v>
+      </c>
+      <c r="F7" s="2">
         <v>44712</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44620</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44530</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44439</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44347</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44255</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44165</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44074</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43982</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43890</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43799</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43708</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43616</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43524</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43434</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43343</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43251</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43159</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43069</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42978</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42886</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42794</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42704</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -849,8 +856,14 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -899,14 +912,14 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>4</v>
+      <c r="U9" s="3">
+        <v>0</v>
       </c>
       <c r="V9" s="3" t="s">
         <v>4</v>
@@ -926,8 +939,14 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,14 +995,14 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>4</v>
+      <c r="U10" s="3">
+        <v>0</v>
       </c>
       <c r="V10" s="3" t="s">
         <v>4</v>
@@ -1003,8 +1022,14 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1057,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1136,14 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1219,14 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1254,22 +1293,28 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1325,23 +1370,29 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>0</v>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1417,10 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1381,47 +1434,47 @@
         <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
-        <v>100</v>
-      </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
       <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
-        <v>100</v>
-      </c>
       <c r="Q17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
-        <v>100</v>
-      </c>
-      <c r="T17" s="3">
-        <v>100</v>
-      </c>
       <c r="U17" s="3">
         <v>100</v>
       </c>
@@ -1429,22 +1482,28 @@
         <v>100</v>
       </c>
       <c r="W17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X17" s="3">
         <v>100</v>
       </c>
       <c r="Y17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="3">
         <v>100</v>
       </c>
       <c r="AA17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1458,47 +1517,47 @@
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-100</v>
-      </c>
       <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-100</v>
-      </c>
       <c r="U18" s="3">
         <v>-100</v>
       </c>
@@ -1506,22 +1565,28 @@
         <v>-100</v>
       </c>
       <c r="W18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X18" s="3">
         <v>-100</v>
       </c>
       <c r="Y18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="3">
         <v>-100</v>
       </c>
       <c r="AA18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1614,10 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1564,70 +1631,76 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>400</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>400</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1635,53 +1708,53 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F21" s="3">
         <v>-100</v>
       </c>
       <c r="G21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-100</v>
-      </c>
       <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-100</v>
-      </c>
       <c r="N21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q21" s="3">
         <v>-100</v>
       </c>
       <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T21" s="3">
         <v>200</v>
       </c>
-      <c r="S21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-100</v>
-      </c>
       <c r="U21" s="3">
         <v>-100</v>
       </c>
@@ -1689,22 +1762,28 @@
         <v>-100</v>
       </c>
       <c r="W21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X21" s="3">
         <v>-100</v>
       </c>
       <c r="Y21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="3">
         <v>-100</v>
       </c>
       <c r="AA21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,8 +1859,14 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1789,53 +1874,53 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F23" s="3">
         <v>-100</v>
       </c>
       <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-100</v>
-      </c>
       <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
       <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
         <v>200</v>
       </c>
-      <c r="S23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-100</v>
-      </c>
       <c r="U23" s="3">
         <v>-100</v>
       </c>
@@ -1843,22 +1928,28 @@
         <v>-100</v>
       </c>
       <c r="W23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X23" s="3">
         <v>-100</v>
       </c>
       <c r="Y23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="3">
         <v>-100</v>
       </c>
       <c r="AA23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +2025,14 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,8 +2108,14 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2020,53 +2123,53 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F26" s="3">
         <v>-100</v>
       </c>
       <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-100</v>
-      </c>
       <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
       <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
         <v>200</v>
       </c>
-      <c r="S26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-100</v>
-      </c>
       <c r="U26" s="3">
         <v>-100</v>
       </c>
@@ -2074,22 +2177,28 @@
         <v>-100</v>
       </c>
       <c r="W26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X26" s="3">
         <v>-100</v>
       </c>
       <c r="Y26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="3">
         <v>-100</v>
       </c>
       <c r="AA26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2097,53 +2206,53 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F27" s="3">
         <v>-100</v>
       </c>
       <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
       <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-100</v>
-      </c>
       <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
       <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
         <v>200</v>
       </c>
-      <c r="S27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-100</v>
-      </c>
       <c r="U27" s="3">
         <v>-100</v>
       </c>
@@ -2151,22 +2260,28 @@
         <v>-100</v>
       </c>
       <c r="W27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X27" s="3">
         <v>-100</v>
       </c>
       <c r="Y27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="3">
         <v>-100</v>
       </c>
       <c r="AA27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2357,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2440,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2606,14 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2488,70 +2627,76 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>200</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>100</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-400</v>
-      </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2559,53 +2704,53 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F33" s="3">
         <v>-100</v>
       </c>
       <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
       <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-100</v>
-      </c>
       <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
       <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
         <v>200</v>
       </c>
-      <c r="S33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-100</v>
-      </c>
       <c r="U33" s="3">
         <v>-100</v>
       </c>
@@ -2613,22 +2758,28 @@
         <v>-100</v>
       </c>
       <c r="W33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X33" s="3">
         <v>-100</v>
       </c>
       <c r="Y33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="3">
         <v>-100</v>
       </c>
       <c r="AA33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,8 +2855,14 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2713,53 +2870,53 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F35" s="3">
         <v>-100</v>
       </c>
       <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
       <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-100</v>
-      </c>
       <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
       <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
         <v>200</v>
       </c>
-      <c r="S35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-100</v>
-      </c>
       <c r="U35" s="3">
         <v>-100</v>
       </c>
@@ -2767,104 +2924,116 @@
         <v>-100</v>
       </c>
       <c r="W35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X35" s="3">
         <v>-100</v>
       </c>
       <c r="Y35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="3">
         <v>-100</v>
       </c>
       <c r="AA35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44804</v>
+      </c>
+      <c r="F38" s="2">
         <v>44712</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44620</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44530</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44439</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44347</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44255</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44165</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44074</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43982</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43890</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43799</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43708</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43616</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43524</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43434</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43343</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43251</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43159</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43069</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42978</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42886</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42794</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42704</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,22 +3092,24 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
@@ -2945,38 +3118,38 @@
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>1700</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>200</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>1700</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2000</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3">
-        <v>100</v>
-      </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
@@ -2984,13 +3157,13 @@
         <v>100</v>
       </c>
       <c r="W41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X41" s="3">
         <v>100</v>
       </c>
       <c r="Y41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z41" s="3">
         <v>100</v>
@@ -2998,46 +3171,52 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>600</v>
+      </c>
+      <c r="F42" s="3">
         <v>700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
+        <v>700</v>
+      </c>
+      <c r="H42" s="3">
         <v>800</v>
       </c>
-      <c r="F42" s="3">
-        <v>800</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K42" s="3">
         <v>1700</v>
       </c>
-      <c r="I42" s="3">
-        <v>1700</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>700</v>
-      </c>
-      <c r="N42" s="3">
-        <v>800</v>
-      </c>
-      <c r="O42" s="3">
-        <v>800</v>
       </c>
       <c r="P42" s="3">
         <v>800</v>
@@ -3045,20 +3224,20 @@
       <c r="Q42" s="3">
         <v>800</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>4</v>
+      <c r="R42" s="3">
+        <v>800</v>
+      </c>
+      <c r="S42" s="3">
+        <v>800</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
-      </c>
-      <c r="V42" s="3">
-        <v>0</v>
+      <c r="U42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W42" s="3">
         <v>0</v>
@@ -3075,8 +3254,14 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3084,10 +3269,10 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -3099,10 +3284,10 @@
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -3111,16 +3296,16 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -3152,8 +3337,14 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3420,14 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3262,13 +3459,13 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -3306,62 +3503,68 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>800</v>
+      </c>
+      <c r="F46" s="3">
+        <v>800</v>
+      </c>
+      <c r="G46" s="3">
+        <v>800</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M46" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
-        <v>900</v>
-      </c>
-      <c r="F46" s="3">
+      <c r="O46" s="3">
+        <v>800</v>
+      </c>
+      <c r="P46" s="3">
         <v>1000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="Q46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S46" s="3">
         <v>1500</v>
       </c>
-      <c r="H46" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1900</v>
-      </c>
-      <c r="J46" s="3">
-        <v>2200</v>
-      </c>
-      <c r="K46" s="3">
-        <v>2400</v>
-      </c>
-      <c r="L46" s="3">
-        <v>900</v>
-      </c>
-      <c r="M46" s="3">
-        <v>800</v>
-      </c>
-      <c r="N46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O46" s="3">
-        <v>1200</v>
-      </c>
-      <c r="P46" s="3">
-        <v>1400</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>1500</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2100</v>
       </c>
-      <c r="S46" s="3">
-        <v>100</v>
-      </c>
-      <c r="T46" s="3">
-        <v>100</v>
-      </c>
       <c r="U46" s="3">
         <v>100</v>
       </c>
@@ -3383,8 +3586,14 @@
       <c r="AA46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,13 +3669,19 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="E48" s="3">
         <v>2400</v>
@@ -3475,70 +3690,76 @@
         <v>2400</v>
       </c>
       <c r="G48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I48" s="3">
         <v>2100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>500</v>
-      </c>
-      <c r="P48" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>200</v>
       </c>
       <c r="R48" s="3">
         <v>200</v>
       </c>
       <c r="S48" s="3">
+        <v>200</v>
+      </c>
+      <c r="T48" s="3">
+        <v>200</v>
+      </c>
+      <c r="U48" s="3">
         <v>1900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>2000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>2000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>2100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>2100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>2200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>2200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3835,14 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +4001,14 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +4084,14 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,64 +4167,70 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F54" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G54" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H54" s="3">
         <v>3300</v>
       </c>
-      <c r="E54" s="3">
-        <v>3300</v>
-      </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K54" s="3">
         <v>3400</v>
       </c>
-      <c r="G54" s="3">
-        <v>3600</v>
-      </c>
-      <c r="H54" s="3">
-        <v>3800</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>3400</v>
       </c>
-      <c r="J54" s="3">
-        <v>3400</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1500</v>
-      </c>
-      <c r="O54" s="3">
-        <v>1700</v>
-      </c>
-      <c r="P54" s="3">
-        <v>1700</v>
       </c>
       <c r="Q54" s="3">
         <v>1700</v>
       </c>
       <c r="R54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="T54" s="3">
         <v>2200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1900</v>
-      </c>
-      <c r="T54" s="3">
-        <v>2100</v>
-      </c>
-      <c r="U54" s="3">
-        <v>2100</v>
       </c>
       <c r="V54" s="3">
         <v>2100</v>
@@ -3988,19 +4239,25 @@
         <v>2100</v>
       </c>
       <c r="X54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Z54" s="3">
         <v>2200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>2300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>2300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,62 +4316,64 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>100</v>
+      </c>
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
       <c r="U57" s="3">
         <v>0</v>
       </c>
@@ -4134,8 +4395,14 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4211,8 +4478,14 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4262,10 +4535,10 @@
         <v>100</v>
       </c>
       <c r="S59" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="T59" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="U59" s="3">
         <v>500</v>
@@ -4277,51 +4550,57 @@
         <v>500</v>
       </c>
       <c r="X59" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z59" s="3">
         <v>400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H60" s="3">
         <v>200</v>
       </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J60" s="3">
         <v>200</v>
       </c>
       <c r="K60" s="3">
+        <v>100</v>
+      </c>
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3">
-        <v>100</v>
-      </c>
       <c r="M60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>100</v>
@@ -4336,37 +4615,43 @@
         <v>100</v>
       </c>
       <c r="R60" s="3">
+        <v>100</v>
+      </c>
+      <c r="S60" s="3">
+        <v>100</v>
+      </c>
+      <c r="T60" s="3">
         <v>500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>600</v>
-      </c>
-      <c r="U60" s="3">
-        <v>500</v>
-      </c>
-      <c r="V60" s="3">
-        <v>500</v>
       </c>
       <c r="W60" s="3">
         <v>500</v>
       </c>
       <c r="X60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Y60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Z60" s="3">
         <v>400</v>
       </c>
       <c r="AA60" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,8 +4727,14 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4498,20 +4789,20 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W62" s="3">
-        <v>0</v>
-      </c>
-      <c r="X62" s="3">
-        <v>100</v>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z62" s="3">
         <v>100</v>
@@ -4519,8 +4810,14 @@
       <c r="AA62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,40 +5059,46 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G66" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H66" s="3">
         <v>200</v>
       </c>
       <c r="I66" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J66" s="3">
         <v>200</v>
       </c>
       <c r="K66" s="3">
+        <v>100</v>
+      </c>
+      <c r="L66" s="3">
         <v>200</v>
       </c>
-      <c r="L66" s="3">
-        <v>100</v>
-      </c>
       <c r="M66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N66" s="3">
         <v>100</v>
@@ -4798,19 +5113,19 @@
         <v>100</v>
       </c>
       <c r="R66" s="3">
+        <v>100</v>
+      </c>
+      <c r="S66" s="3">
+        <v>100</v>
+      </c>
+      <c r="T66" s="3">
         <v>500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>600</v>
-      </c>
-      <c r="U66" s="3">
-        <v>500</v>
-      </c>
-      <c r="V66" s="3">
-        <v>500</v>
       </c>
       <c r="W66" s="3">
         <v>500</v>
@@ -4819,16 +5134,22 @@
         <v>500</v>
       </c>
       <c r="Y66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Z66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AA66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5422,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5505,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-19600</v>
+        <v>-19100</v>
       </c>
       <c r="E72" s="3">
-        <v>-19600</v>
+        <v>-19000</v>
       </c>
       <c r="F72" s="3">
-        <v>-19500</v>
+        <v>-18900</v>
       </c>
       <c r="G72" s="3">
-        <v>-19400</v>
+        <v>-18800</v>
       </c>
       <c r="H72" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="N72" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="O72" s="3">
         <v>-19100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="P72" s="3">
         <v>-19000</v>
       </c>
-      <c r="J72" s="3">
-        <v>-18900</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-19200</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-19200</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="Q72" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="R72" s="3">
         <v>-19100</v>
       </c>
-      <c r="N72" s="3">
-        <v>-19000</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-20000</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-19100</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-18400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-18400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-17500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-18100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-17800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-17800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-17700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-17700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-18200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-18100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5837,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F76" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G76" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H76" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I76" s="3">
         <v>3200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="J76" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K76" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L76" s="3">
         <v>3200</v>
       </c>
-      <c r="F76" s="3">
-        <v>3300</v>
-      </c>
-      <c r="G76" s="3">
-        <v>3400</v>
-      </c>
-      <c r="H76" s="3">
-        <v>3600</v>
-      </c>
-      <c r="I76" s="3">
-        <v>3300</v>
-      </c>
-      <c r="J76" s="3">
-        <v>3200</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3100</v>
-      </c>
-      <c r="L76" s="3">
-        <v>1400</v>
-      </c>
-      <c r="M76" s="3">
-        <v>1300</v>
       </c>
       <c r="N76" s="3">
         <v>1400</v>
       </c>
       <c r="O76" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="P76" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="Q76" s="3">
         <v>1600</v>
       </c>
       <c r="R76" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S76" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T76" s="3">
         <v>1700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>1700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>1800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>1900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,90 +6003,102 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44804</v>
+      </c>
+      <c r="F80" s="2">
         <v>44712</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44620</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44530</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44439</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44347</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44255</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44165</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44074</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43982</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43890</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43799</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43708</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43616</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43524</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43434</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43343</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43251</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43159</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43069</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42978</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42886</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42794</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42704</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5717,53 +6106,53 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F81" s="3">
         <v>-100</v>
       </c>
       <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
       <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-100</v>
-      </c>
       <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
       <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
         <v>200</v>
       </c>
-      <c r="S81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-100</v>
-      </c>
       <c r="U81" s="3">
         <v>-100</v>
       </c>
@@ -5771,22 +6160,28 @@
         <v>-100</v>
       </c>
       <c r="W81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X81" s="3">
         <v>-100</v>
       </c>
       <c r="Y81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z81" s="3">
         <v>-100</v>
       </c>
       <c r="AA81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,13 +6209,15 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -5891,8 +6288,14 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,70 +6703,76 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>-200</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3">
         <v>-600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
       <c r="W89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X89" s="3">
         <v>0</v>
@@ -6351,10 +6784,16 @@
         <v>0</v>
       </c>
       <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,53 +6821,55 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="M91" s="3">
+        <v>100</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K91" s="3">
-        <v>100</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
@@ -6445,7 +6886,7 @@
         <v>0</v>
       </c>
       <c r="W91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
@@ -6459,8 +6900,14 @@
       <c r="AA91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,62 +7066,68 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>200</v>
       </c>
-      <c r="G94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-1800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>100</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>100</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>2200</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
-        <v>100</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
@@ -6690,8 +7149,14 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7184,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7263,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,41 +7512,47 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>2000</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
@@ -7071,11 +7562,11 @@
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -7104,8 +7595,14 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,62 +7678,68 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-1500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-1300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>2000</v>
       </c>
-      <c r="S102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T102" s="3">
-        <v>100</v>
-      </c>
       <c r="U102" s="3">
         <v>-100</v>
       </c>
@@ -7244,18 +7747,24 @@
         <v>100</v>
       </c>
       <c r="W102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X102" s="3">
         <v>100</v>
       </c>
       <c r="Y102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z102" s="3">
         <v>100</v>
       </c>
       <c r="AA102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GGTHF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GGTHF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
   <si>
     <t>GGTHF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,126 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E7" s="2">
         <v>44895</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44804</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44712</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44620</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44530</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44439</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44347</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44255</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44165</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44074</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43982</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43890</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43799</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43708</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43616</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43524</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43434</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43343</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43251</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43159</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43069</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42978</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42886</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42794</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42704</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -862,8 +866,11 @@
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -918,11 +925,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>4</v>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>4</v>
@@ -945,8 +952,11 @@
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1001,11 +1011,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>4</v>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
       </c>
       <c r="W10" s="3" t="s">
         <v>4</v>
@@ -1028,8 +1038,11 @@
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1142,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,8 +1242,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1299,8 +1319,8 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>4</v>
+      <c r="AA14" s="3">
+        <v>0</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>4</v>
@@ -1308,16 +1328,19 @@
       <c r="AC14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1376,14 +1399,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>4</v>
+      <c r="Y15" s="3">
+        <v>0</v>
       </c>
       <c r="Z15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA15" s="3">
-        <v>0</v>
+      <c r="AA15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB15" s="3">
         <v>0</v>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,13 +1445,14 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>100</v>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -1440,44 +1467,44 @@
         <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
       </c>
       <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
-        <v>100</v>
-      </c>
       <c r="O17" s="3">
         <v>100</v>
       </c>
       <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S17" s="3">
         <v>100</v>
       </c>
       <c r="T17" s="3">
+        <v>100</v>
+      </c>
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="U17" s="3">
-        <v>100</v>
-      </c>
       <c r="V17" s="3">
         <v>100</v>
       </c>
@@ -1488,10 +1515,10 @@
         <v>100</v>
       </c>
       <c r="Y17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="3">
         <v>100</v>
@@ -1500,10 +1527,13 @@
         <v>100</v>
       </c>
       <c r="AC17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1523,44 +1553,44 @@
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
       <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
-        <v>-100</v>
-      </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
       <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
         <v>-100</v>
       </c>
       <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
-        <v>-100</v>
-      </c>
       <c r="V18" s="3">
         <v>-100</v>
       </c>
@@ -1571,10 +1601,10 @@
         <v>-100</v>
       </c>
       <c r="Y18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="3">
         <v>-100</v>
@@ -1583,10 +1613,13 @@
         <v>-100</v>
       </c>
       <c r="AC18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,8 +1649,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1637,11 +1671,11 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1649,11 +1683,11 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1661,20 +1695,20 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>400</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
@@ -1697,22 +1731,25 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
-        <v>-100</v>
-      </c>
       <c r="G21" s="3">
         <v>-100</v>
       </c>
@@ -1720,32 +1757,32 @@
         <v>-100</v>
       </c>
       <c r="I21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
-        <v>-100</v>
-      </c>
       <c r="K21" s="3">
         <v>-100</v>
       </c>
       <c r="L21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
-        <v>-100</v>
-      </c>
       <c r="O21" s="3">
         <v>-100</v>
       </c>
       <c r="P21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
-        <v>-100</v>
-      </c>
       <c r="R21" s="3">
         <v>-100</v>
       </c>
@@ -1753,11 +1790,11 @@
         <v>-100</v>
       </c>
       <c r="T21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U21" s="3">
         <v>200</v>
       </c>
-      <c r="U21" s="3">
-        <v>-100</v>
-      </c>
       <c r="V21" s="3">
         <v>-100</v>
       </c>
@@ -1768,10 +1805,10 @@
         <v>-100</v>
       </c>
       <c r="Y21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="3">
         <v>-100</v>
@@ -1780,10 +1817,13 @@
         <v>-100</v>
       </c>
       <c r="AC21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1865,20 +1905,23 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>-100</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
-        <v>-100</v>
-      </c>
       <c r="G23" s="3">
         <v>-100</v>
       </c>
@@ -1886,32 +1929,32 @@
         <v>-100</v>
       </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
-        <v>-100</v>
-      </c>
       <c r="K23" s="3">
         <v>-100</v>
       </c>
       <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
-        <v>-100</v>
-      </c>
       <c r="O23" s="3">
         <v>-100</v>
       </c>
       <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
-      </c>
       <c r="R23" s="3">
         <v>-100</v>
       </c>
@@ -1919,11 +1962,11 @@
         <v>-100</v>
       </c>
       <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U23" s="3">
         <v>200</v>
       </c>
-      <c r="U23" s="3">
-        <v>-100</v>
-      </c>
       <c r="V23" s="3">
         <v>-100</v>
       </c>
@@ -1934,10 +1977,10 @@
         <v>-100</v>
       </c>
       <c r="Y23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="3">
         <v>-100</v>
@@ -1946,10 +1989,13 @@
         <v>-100</v>
       </c>
       <c r="AC23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2031,8 +2077,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,20 +2163,23 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-100</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
-        <v>-100</v>
-      </c>
       <c r="G26" s="3">
         <v>-100</v>
       </c>
@@ -2135,32 +2187,32 @@
         <v>-100</v>
       </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
-        <v>-100</v>
-      </c>
       <c r="K26" s="3">
         <v>-100</v>
       </c>
       <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
-        <v>-100</v>
-      </c>
       <c r="O26" s="3">
         <v>-100</v>
       </c>
       <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
-      </c>
       <c r="R26" s="3">
         <v>-100</v>
       </c>
@@ -2168,11 +2220,11 @@
         <v>-100</v>
       </c>
       <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U26" s="3">
         <v>200</v>
       </c>
-      <c r="U26" s="3">
-        <v>-100</v>
-      </c>
       <c r="V26" s="3">
         <v>-100</v>
       </c>
@@ -2183,10 +2235,10 @@
         <v>-100</v>
       </c>
       <c r="Y26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="3">
         <v>-100</v>
@@ -2195,22 +2247,25 @@
         <v>-100</v>
       </c>
       <c r="AC26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-100</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
-        <v>-100</v>
-      </c>
       <c r="G27" s="3">
         <v>-100</v>
       </c>
@@ -2218,32 +2273,32 @@
         <v>-100</v>
       </c>
       <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
-        <v>-100</v>
-      </c>
       <c r="K27" s="3">
         <v>-100</v>
       </c>
       <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
-        <v>-100</v>
-      </c>
       <c r="O27" s="3">
         <v>-100</v>
       </c>
       <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
-      </c>
       <c r="R27" s="3">
         <v>-100</v>
       </c>
@@ -2251,11 +2306,11 @@
         <v>-100</v>
       </c>
       <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U27" s="3">
         <v>200</v>
       </c>
-      <c r="U27" s="3">
-        <v>-100</v>
-      </c>
       <c r="V27" s="3">
         <v>-100</v>
       </c>
@@ -2266,10 +2321,10 @@
         <v>-100</v>
       </c>
       <c r="Y27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="3">
         <v>-100</v>
@@ -2278,10 +2333,13 @@
         <v>-100</v>
       </c>
       <c r="AC27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,8 +2679,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2633,11 +2703,11 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2645,11 +2715,11 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2657,20 +2727,20 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-400</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
@@ -2693,22 +2763,25 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-100</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
-        <v>-100</v>
-      </c>
       <c r="G33" s="3">
         <v>-100</v>
       </c>
@@ -2716,32 +2789,32 @@
         <v>-100</v>
       </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
       <c r="K33" s="3">
         <v>-100</v>
       </c>
       <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
-        <v>-100</v>
-      </c>
       <c r="O33" s="3">
         <v>-100</v>
       </c>
       <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
-      </c>
       <c r="R33" s="3">
         <v>-100</v>
       </c>
@@ -2749,11 +2822,11 @@
         <v>-100</v>
       </c>
       <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U33" s="3">
         <v>200</v>
       </c>
-      <c r="U33" s="3">
-        <v>-100</v>
-      </c>
       <c r="V33" s="3">
         <v>-100</v>
       </c>
@@ -2764,10 +2837,10 @@
         <v>-100</v>
       </c>
       <c r="Y33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="3">
         <v>-100</v>
@@ -2776,10 +2849,13 @@
         <v>-100</v>
       </c>
       <c r="AC33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,20 +2937,23 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-100</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
-        <v>-100</v>
-      </c>
       <c r="G35" s="3">
         <v>-100</v>
       </c>
@@ -2882,32 +2961,32 @@
         <v>-100</v>
       </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
       <c r="K35" s="3">
         <v>-100</v>
       </c>
       <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
-        <v>-100</v>
-      </c>
       <c r="O35" s="3">
         <v>-100</v>
       </c>
       <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
-      </c>
       <c r="R35" s="3">
         <v>-100</v>
       </c>
@@ -2915,11 +2994,11 @@
         <v>-100</v>
       </c>
       <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U35" s="3">
         <v>200</v>
       </c>
-      <c r="U35" s="3">
-        <v>-100</v>
-      </c>
       <c r="V35" s="3">
         <v>-100</v>
       </c>
@@ -2930,10 +3009,10 @@
         <v>-100</v>
       </c>
       <c r="Y35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="3">
         <v>-100</v>
@@ -2942,98 +3021,104 @@
         <v>-100</v>
       </c>
       <c r="AC35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E38" s="2">
         <v>44895</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44804</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44712</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44620</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44530</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44439</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44347</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44255</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44165</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44074</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43982</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43890</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43799</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43708</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43616</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43524</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43434</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43343</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43251</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43159</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43069</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42978</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42886</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42794</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42704</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,25 +3180,26 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
@@ -3124,43 +3211,43 @@
         <v>100</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
       <c r="P41" s="3">
         <v>100</v>
       </c>
       <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2000</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
       <c r="V41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="3">
         <v>100</v>
@@ -3169,57 +3256,60 @@
         <v>100</v>
       </c>
       <c r="AA41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E42" s="3">
         <v>600</v>
       </c>
       <c r="F42" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G42" s="3">
         <v>700</v>
       </c>
       <c r="H42" s="3">
+        <v>700</v>
+      </c>
+      <c r="I42" s="3">
         <v>800</v>
       </c>
-      <c r="I42" s="3">
-        <v>1200</v>
-      </c>
       <c r="J42" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K42" s="3">
         <v>1600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1900</v>
-      </c>
-      <c r="M42" s="3">
-        <v>600</v>
       </c>
       <c r="N42" s="3">
         <v>600</v>
       </c>
       <c r="O42" s="3">
+        <v>600</v>
+      </c>
+      <c r="P42" s="3">
         <v>700</v>
-      </c>
-      <c r="P42" s="3">
-        <v>800</v>
       </c>
       <c r="Q42" s="3">
         <v>800</v>
@@ -3230,8 +3320,8 @@
       <c r="S42" s="3">
         <v>800</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>4</v>
+      <c r="T42" s="3">
+        <v>800</v>
       </c>
       <c r="U42" s="3" t="s">
         <v>4</v>
@@ -3239,8 +3329,8 @@
       <c r="V42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W42" s="3">
-        <v>0</v>
+      <c r="W42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X42" s="3">
         <v>0</v>
@@ -3260,13 +3350,16 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -3275,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
@@ -3290,7 +3383,7 @@
         <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -3302,13 +3395,13 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -3343,8 +3436,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,8 +3522,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3465,10 +3564,10 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -3509,16 +3608,19 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
         <v>700</v>
-      </c>
-      <c r="E46" s="3">
-        <v>800</v>
       </c>
       <c r="F46" s="3">
         <v>800</v>
@@ -3527,47 +3629,47 @@
         <v>800</v>
       </c>
       <c r="H46" s="3">
+        <v>900</v>
+      </c>
+      <c r="I46" s="3">
         <v>1000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N46" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O46" s="3">
+        <v>900</v>
+      </c>
+      <c r="P46" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S46" s="3">
         <v>1400</v>
       </c>
-      <c r="J46" s="3">
-        <v>1800</v>
-      </c>
-      <c r="K46" s="3">
-        <v>1900</v>
-      </c>
-      <c r="L46" s="3">
-        <v>2200</v>
-      </c>
-      <c r="M46" s="3">
-        <v>2400</v>
-      </c>
-      <c r="N46" s="3">
-        <v>900</v>
-      </c>
-      <c r="O46" s="3">
-        <v>800</v>
-      </c>
-      <c r="P46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>1200</v>
-      </c>
-      <c r="R46" s="3">
-        <v>1400</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2100</v>
       </c>
-      <c r="U46" s="3">
-        <v>100</v>
-      </c>
       <c r="V46" s="3">
         <v>100</v>
       </c>
@@ -3592,8 +3694,11 @@
       <c r="AC46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3675,55 +3780,58 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E48" s="3">
         <v>2600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G48" s="3">
         <v>2400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2400</v>
       </c>
-      <c r="G48" s="3">
-        <v>2300</v>
-      </c>
-      <c r="H48" s="3">
-        <v>2300</v>
-      </c>
       <c r="I48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J48" s="3">
         <v>2100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>700</v>
-      </c>
-      <c r="O48" s="3">
-        <v>600</v>
       </c>
       <c r="P48" s="3">
         <v>600</v>
       </c>
       <c r="Q48" s="3">
+        <v>600</v>
+      </c>
+      <c r="R48" s="3">
         <v>500</v>
-      </c>
-      <c r="R48" s="3">
-        <v>200</v>
       </c>
       <c r="S48" s="3">
         <v>200</v>
@@ -3732,34 +3840,37 @@
         <v>200</v>
       </c>
       <c r="U48" s="3">
-        <v>1900</v>
+        <v>200</v>
       </c>
       <c r="V48" s="3">
         <v>1900</v>
       </c>
       <c r="W48" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="X48" s="3">
         <v>2000</v>
       </c>
       <c r="Y48" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="Z48" s="3">
         <v>2100</v>
       </c>
       <c r="AA48" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="AB48" s="3">
         <v>2200</v>
       </c>
       <c r="AC48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="AD48" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3841,8 +3952,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4124,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4090,8 +4210,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,52 +4296,55 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="E54" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="F54" s="3">
         <v>3200</v>
       </c>
       <c r="G54" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="H54" s="3">
         <v>3300</v>
       </c>
       <c r="I54" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="J54" s="3">
         <v>3600</v>
       </c>
       <c r="K54" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="L54" s="3">
         <v>3400</v>
       </c>
       <c r="M54" s="3">
+        <v>3400</v>
+      </c>
+      <c r="N54" s="3">
         <v>3200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>1700</v>
       </c>
       <c r="R54" s="3">
         <v>1700</v>
@@ -4227,13 +4353,13 @@
         <v>1700</v>
       </c>
       <c r="T54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="U54" s="3">
         <v>2200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1900</v>
-      </c>
-      <c r="V54" s="3">
-        <v>2100</v>
       </c>
       <c r="W54" s="3">
         <v>2100</v>
@@ -4245,19 +4371,22 @@
         <v>2100</v>
       </c>
       <c r="Z54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="AA54" s="3">
         <v>2200</v>
-      </c>
-      <c r="AA54" s="3">
-        <v>2300</v>
       </c>
       <c r="AB54" s="3">
         <v>2300</v>
       </c>
       <c r="AC54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="AD54" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,17 +4448,18 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
@@ -4336,25 +4467,25 @@
         <v>0</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
+        <v>100</v>
+      </c>
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -4363,20 +4494,20 @@
         <v>0</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
       <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
         <v>400</v>
       </c>
-      <c r="U57" s="3">
-        <v>0</v>
-      </c>
       <c r="V57" s="3">
         <v>0</v>
       </c>
@@ -4401,8 +4532,11 @@
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4484,13 +4618,16 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
@@ -4541,7 +4678,7 @@
         <v>100</v>
       </c>
       <c r="U59" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="V59" s="3">
         <v>500</v>
@@ -4556,54 +4693,57 @@
         <v>500</v>
       </c>
       <c r="Z59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AA59" s="3">
         <v>400</v>
       </c>
       <c r="AB59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AC59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>200</v>
+      </c>
+      <c r="E60" s="3">
         <v>300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>200</v>
       </c>
-      <c r="F60" s="3">
-        <v>100</v>
-      </c>
       <c r="G60" s="3">
         <v>100</v>
       </c>
       <c r="H60" s="3">
+        <v>100</v>
+      </c>
+      <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3">
-        <v>100</v>
-      </c>
       <c r="L60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M60" s="3">
         <v>200</v>
       </c>
       <c r="N60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O60" s="3">
         <v>100</v>
@@ -4621,16 +4761,16 @@
         <v>100</v>
       </c>
       <c r="T60" s="3">
+        <v>100</v>
+      </c>
+      <c r="U60" s="3">
         <v>500</v>
-      </c>
-      <c r="U60" s="3">
-        <v>600</v>
       </c>
       <c r="V60" s="3">
         <v>600</v>
       </c>
       <c r="W60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="X60" s="3">
         <v>500</v>
@@ -4639,7 +4779,7 @@
         <v>500</v>
       </c>
       <c r="Z60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AA60" s="3">
         <v>400</v>
@@ -4648,10 +4788,13 @@
         <v>400</v>
       </c>
       <c r="AC60" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4733,8 +4876,11 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4795,17 +4941,17 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>4</v>
+      <c r="W62" s="3">
+        <v>0</v>
       </c>
       <c r="X62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA62" s="3">
         <v>100</v>
@@ -4816,8 +4962,11 @@
       <c r="AC62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,43 +5220,46 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>200</v>
+      </c>
+      <c r="E66" s="3">
         <v>300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>200</v>
       </c>
-      <c r="F66" s="3">
-        <v>100</v>
-      </c>
       <c r="G66" s="3">
         <v>100</v>
       </c>
       <c r="H66" s="3">
+        <v>100</v>
+      </c>
+      <c r="I66" s="3">
         <v>200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>200</v>
       </c>
-      <c r="K66" s="3">
-        <v>100</v>
-      </c>
       <c r="L66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M66" s="3">
         <v>200</v>
       </c>
       <c r="N66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O66" s="3">
         <v>100</v>
@@ -5119,16 +5277,16 @@
         <v>100</v>
       </c>
       <c r="T66" s="3">
+        <v>100</v>
+      </c>
+      <c r="U66" s="3">
         <v>500</v>
-      </c>
-      <c r="U66" s="3">
-        <v>600</v>
       </c>
       <c r="V66" s="3">
         <v>600</v>
       </c>
       <c r="W66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="X66" s="3">
         <v>500</v>
@@ -5140,7 +5298,7 @@
         <v>500</v>
       </c>
       <c r="AA66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AB66" s="3">
         <v>400</v>
@@ -5148,8 +5306,11 @@
       <c r="AC66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="J72" s="3">
         <v>-19100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="K72" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="L72" s="3">
         <v>-19000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="M72" s="3">
         <v>-18900</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-18800</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-18700</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-18600</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-18400</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-19000</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-18900</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-19200</v>
       </c>
       <c r="N72" s="3">
         <v>-19200</v>
       </c>
       <c r="O72" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="P72" s="3">
         <v>-19100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-20000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-19100</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-18400</v>
       </c>
       <c r="T72" s="3">
         <v>-18400</v>
       </c>
       <c r="U72" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="V72" s="3">
         <v>-17500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-18100</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-17800</v>
       </c>
       <c r="X72" s="3">
         <v>-17800</v>
       </c>
       <c r="Y72" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="Z72" s="3">
         <v>-17700</v>
       </c>
       <c r="AA72" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-18200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-18100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,8 +6026,11 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5858,7 +6044,7 @@
         <v>3100</v>
       </c>
       <c r="G76" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="H76" s="3">
         <v>3100</v>
@@ -5867,28 +6053,28 @@
         <v>3200</v>
       </c>
       <c r="J76" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K76" s="3">
         <v>3500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>1600</v>
       </c>
       <c r="R76" s="3">
         <v>1600</v>
@@ -5897,37 +6083,40 @@
         <v>1600</v>
       </c>
       <c r="T76" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U76" s="3">
         <v>1700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1500</v>
-      </c>
-      <c r="W76" s="3">
-        <v>1600</v>
       </c>
       <c r="X76" s="3">
         <v>1600</v>
       </c>
       <c r="Y76" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="Z76" s="3">
         <v>1700</v>
       </c>
       <c r="AA76" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AB76" s="3">
         <v>1800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,108 +6198,114 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E80" s="2">
         <v>44895</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44804</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44712</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44620</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44530</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44439</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44347</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44255</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44165</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44074</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43982</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43890</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43799</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43708</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43616</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43524</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43434</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43343</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43251</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43159</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43069</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42978</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42886</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42794</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42704</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-100</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
-        <v>-100</v>
-      </c>
       <c r="G81" s="3">
         <v>-100</v>
       </c>
@@ -6118,32 +6313,32 @@
         <v>-100</v>
       </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
       <c r="K81" s="3">
         <v>-100</v>
       </c>
       <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
-        <v>-100</v>
-      </c>
       <c r="O81" s="3">
         <v>-100</v>
       </c>
       <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
-      </c>
       <c r="R81" s="3">
         <v>-100</v>
       </c>
@@ -6151,11 +6346,11 @@
         <v>-100</v>
       </c>
       <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U81" s="3">
         <v>200</v>
       </c>
-      <c r="U81" s="3">
-        <v>-100</v>
-      </c>
       <c r="V81" s="3">
         <v>-100</v>
       </c>
@@ -6166,10 +6361,10 @@
         <v>-100</v>
       </c>
       <c r="Y81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA81" s="3">
         <v>-100</v>
@@ -6178,10 +6373,13 @@
         <v>-100</v>
       </c>
       <c r="AC81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,16 +6409,17 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -6294,8 +6493,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,44 +6923,47 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
-        <v>-100</v>
-      </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
@@ -6754,28 +6971,28 @@
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T89" s="3">
         <v>-600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
       <c r="W89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y89" s="3">
         <v>0</v>
@@ -6790,10 +7007,13 @@
         <v>0</v>
       </c>
       <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,56 +7043,57 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>-400</v>
       </c>
       <c r="J91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
-        <v>100</v>
-      </c>
       <c r="N91" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
@@ -6892,22 +7113,25 @@
         <v>0</v>
       </c>
       <c r="Y91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AC91" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7299,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>200</v>
       </c>
-      <c r="I94" s="3">
-        <v>-100</v>
-      </c>
       <c r="J94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-1800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-400</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>2200</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,22 +7761,25 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -7542,20 +7788,20 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2000</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
@@ -7568,8 +7814,8 @@
       <c r="R100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
+      <c r="S100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -7601,8 +7847,11 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,25 +7933,28 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
@@ -7711,60 +7963,63 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M102" s="3">
         <v>-1500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
-        <v>-100</v>
-      </c>
       <c r="P102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
-        <v>-100</v>
-      </c>
       <c r="S102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-1300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2000</v>
       </c>
-      <c r="U102" s="3">
-        <v>-100</v>
-      </c>
       <c r="V102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="W102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="X102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Y102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AB102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AC102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GGTHF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GGTHF_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,130 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E7" s="2">
         <v>44985</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44895</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44804</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44712</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44620</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44530</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44439</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44347</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44255</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44165</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44074</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43982</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43890</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43799</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43708</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43616</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43524</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43434</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43343</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43251</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43159</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43069</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42978</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42886</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42794</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42704</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -869,8 +873,11 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -928,11 +935,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>4</v>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
       </c>
       <c r="X9" s="3" t="s">
         <v>4</v>
@@ -955,8 +962,11 @@
       <c r="AD9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1014,11 +1024,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>4</v>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0</v>
       </c>
       <c r="X10" s="3" t="s">
         <v>4</v>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1322,8 +1342,8 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-      <c r="AB14" s="3" t="s">
-        <v>4</v>
+      <c r="AB14" s="3">
+        <v>0</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>4</v>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1342,8 +1365,8 @@
       <c r="E15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1402,14 +1425,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>4</v>
+      <c r="Z15" s="3">
+        <v>0</v>
       </c>
       <c r="AA15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB15" s="3">
-        <v>0</v>
+      <c r="AB15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC15" s="3">
         <v>0</v>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,16 +1472,17 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
@@ -1470,44 +1497,44 @@
         <v>100</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
       </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
-        <v>100</v>
-      </c>
       <c r="P17" s="3">
         <v>100</v>
       </c>
       <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T17" s="3">
         <v>100</v>
       </c>
       <c r="U17" s="3">
+        <v>100</v>
+      </c>
+      <c r="V17" s="3">
         <v>200</v>
       </c>
-      <c r="V17" s="3">
-        <v>100</v>
-      </c>
       <c r="W17" s="3">
         <v>100</v>
       </c>
@@ -1518,10 +1545,10 @@
         <v>100</v>
       </c>
       <c r="Z17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="3">
         <v>100</v>
@@ -1530,10 +1557,13 @@
         <v>100</v>
       </c>
       <c r="AD17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1541,7 +1571,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
@@ -1556,44 +1586,44 @@
         <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
       <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
-        <v>-100</v>
-      </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
       </c>
       <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
-        <v>-100</v>
-      </c>
       <c r="W18" s="3">
         <v>-100</v>
       </c>
@@ -1604,10 +1634,10 @@
         <v>-100</v>
       </c>
       <c r="Z18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="3">
         <v>-100</v>
@@ -1616,10 +1646,13 @@
         <v>-100</v>
       </c>
       <c r="AD18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1674,11 +1708,11 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1686,11 +1720,11 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1698,20 +1732,20 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>400</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
@@ -1734,10 +1768,13 @@
         <v>0</v>
       </c>
       <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1747,12 +1784,12 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
-        <v>-100</v>
-      </c>
       <c r="H21" s="3">
         <v>-100</v>
       </c>
@@ -1760,32 +1797,32 @@
         <v>-100</v>
       </c>
       <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
-        <v>-100</v>
-      </c>
       <c r="L21" s="3">
         <v>-100</v>
       </c>
       <c r="M21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
-        <v>-100</v>
-      </c>
       <c r="P21" s="3">
         <v>-100</v>
       </c>
       <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
-        <v>-100</v>
-      </c>
       <c r="S21" s="3">
         <v>-100</v>
       </c>
@@ -1793,11 +1830,11 @@
         <v>-100</v>
       </c>
       <c r="U21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V21" s="3">
         <v>200</v>
       </c>
-      <c r="V21" s="3">
-        <v>-100</v>
-      </c>
       <c r="W21" s="3">
         <v>-100</v>
       </c>
@@ -1808,10 +1845,10 @@
         <v>-100</v>
       </c>
       <c r="Z21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB21" s="3">
         <v>-100</v>
@@ -1820,10 +1857,13 @@
         <v>-100</v>
       </c>
       <c r="AD21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1908,23 +1948,26 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
-        <v>-100</v>
-      </c>
       <c r="H23" s="3">
         <v>-100</v>
       </c>
@@ -1932,32 +1975,32 @@
         <v>-100</v>
       </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
-        <v>-100</v>
-      </c>
       <c r="L23" s="3">
         <v>-100</v>
       </c>
       <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
-        <v>-100</v>
-      </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
-        <v>-100</v>
-      </c>
       <c r="S23" s="3">
         <v>-100</v>
       </c>
@@ -1965,11 +2008,11 @@
         <v>-100</v>
       </c>
       <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V23" s="3">
         <v>200</v>
       </c>
-      <c r="V23" s="3">
-        <v>-100</v>
-      </c>
       <c r="W23" s="3">
         <v>-100</v>
       </c>
@@ -1980,10 +2023,10 @@
         <v>-100</v>
       </c>
       <c r="Z23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="3">
         <v>-100</v>
@@ -1992,10 +2035,13 @@
         <v>-100</v>
       </c>
       <c r="AD23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,23 +2215,26 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
-        <v>-100</v>
-      </c>
       <c r="H26" s="3">
         <v>-100</v>
       </c>
@@ -2190,32 +2242,32 @@
         <v>-100</v>
       </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
-        <v>-100</v>
-      </c>
       <c r="L26" s="3">
         <v>-100</v>
       </c>
       <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
-        <v>-100</v>
-      </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
-        <v>-100</v>
-      </c>
       <c r="S26" s="3">
         <v>-100</v>
       </c>
@@ -2223,11 +2275,11 @@
         <v>-100</v>
       </c>
       <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
         <v>200</v>
       </c>
-      <c r="V26" s="3">
-        <v>-100</v>
-      </c>
       <c r="W26" s="3">
         <v>-100</v>
       </c>
@@ -2238,10 +2290,10 @@
         <v>-100</v>
       </c>
       <c r="Z26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="3">
         <v>-100</v>
@@ -2250,25 +2302,28 @@
         <v>-100</v>
       </c>
       <c r="AD26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
-        <v>-100</v>
-      </c>
       <c r="H27" s="3">
         <v>-100</v>
       </c>
@@ -2276,32 +2331,32 @@
         <v>-100</v>
       </c>
       <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
-        <v>-100</v>
-      </c>
       <c r="L27" s="3">
         <v>-100</v>
       </c>
       <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
-        <v>-100</v>
-      </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
-        <v>-100</v>
-      </c>
       <c r="S27" s="3">
         <v>-100</v>
       </c>
@@ -2309,11 +2364,11 @@
         <v>-100</v>
       </c>
       <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
         <v>200</v>
       </c>
-      <c r="V27" s="3">
-        <v>-100</v>
-      </c>
       <c r="W27" s="3">
         <v>-100</v>
       </c>
@@ -2324,10 +2379,10 @@
         <v>-100</v>
       </c>
       <c r="Z27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="3">
         <v>-100</v>
@@ -2336,10 +2391,13 @@
         <v>-100</v>
       </c>
       <c r="AD27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2706,11 +2776,11 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2718,11 +2788,11 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2730,20 +2800,20 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-400</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
@@ -2766,25 +2836,28 @@
         <v>0</v>
       </c>
       <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
-        <v>-100</v>
-      </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
@@ -2792,32 +2865,32 @@
         <v>-100</v>
       </c>
       <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
-        <v>-100</v>
-      </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
       <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
-        <v>-100</v>
-      </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
-        <v>-100</v>
-      </c>
       <c r="S33" s="3">
         <v>-100</v>
       </c>
@@ -2825,11 +2898,11 @@
         <v>-100</v>
       </c>
       <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
         <v>200</v>
       </c>
-      <c r="V33" s="3">
-        <v>-100</v>
-      </c>
       <c r="W33" s="3">
         <v>-100</v>
       </c>
@@ -2840,10 +2913,10 @@
         <v>-100</v>
       </c>
       <c r="Z33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="3">
         <v>-100</v>
@@ -2852,10 +2925,13 @@
         <v>-100</v>
       </c>
       <c r="AD33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,23 +3016,26 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
-        <v>-100</v>
-      </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
@@ -2964,32 +3043,32 @@
         <v>-100</v>
       </c>
       <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
-        <v>-100</v>
-      </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
       <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
-        <v>-100</v>
-      </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
-        <v>-100</v>
-      </c>
       <c r="S35" s="3">
         <v>-100</v>
       </c>
@@ -2997,11 +3076,11 @@
         <v>-100</v>
       </c>
       <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
         <v>200</v>
       </c>
-      <c r="V35" s="3">
-        <v>-100</v>
-      </c>
       <c r="W35" s="3">
         <v>-100</v>
       </c>
@@ -3012,10 +3091,10 @@
         <v>-100</v>
       </c>
       <c r="Z35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="3">
         <v>-100</v>
@@ -3024,101 +3103,107 @@
         <v>-100</v>
       </c>
       <c r="AD35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E38" s="2">
         <v>44985</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44895</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44804</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44712</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44620</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44530</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44439</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44347</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44255</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44165</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44074</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43982</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43890</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43799</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43708</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43616</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43524</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43434</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43343</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43251</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43159</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43069</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42978</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42886</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42794</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42704</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,8 +3267,9 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3190,19 +3277,19 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
@@ -3214,43 +3301,43 @@
         <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
       <c r="Q41" s="3">
         <v>100</v>
       </c>
       <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2000</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
       <c r="W41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="3">
         <v>100</v>
@@ -3259,16 +3346,19 @@
         <v>100</v>
       </c>
       <c r="AB41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3276,43 +3366,43 @@
         <v>300</v>
       </c>
       <c r="E42" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F42" s="3">
         <v>600</v>
       </c>
       <c r="G42" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H42" s="3">
         <v>700</v>
       </c>
       <c r="I42" s="3">
+        <v>700</v>
+      </c>
+      <c r="J42" s="3">
         <v>800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1900</v>
-      </c>
-      <c r="N42" s="3">
-        <v>600</v>
       </c>
       <c r="O42" s="3">
         <v>600</v>
       </c>
       <c r="P42" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q42" s="3">
         <v>700</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>800</v>
       </c>
       <c r="R42" s="3">
         <v>800</v>
@@ -3323,8 +3413,8 @@
       <c r="T42" s="3">
         <v>800</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>4</v>
+      <c r="U42" s="3">
+        <v>800</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>4</v>
@@ -3332,8 +3422,8 @@
       <c r="W42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X42" s="3">
-        <v>0</v>
+      <c r="X42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y42" s="3">
         <v>0</v>
@@ -3353,16 +3443,19 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -3371,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -3386,7 +3479,7 @@
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -3398,13 +3491,13 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
         <v>100</v>
       </c>
       <c r="S43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,8 +3621,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3567,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -3611,68 +3710,71 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>700</v>
-      </c>
-      <c r="F46" s="3">
-        <v>800</v>
       </c>
       <c r="G46" s="3">
         <v>800</v>
       </c>
       <c r="H46" s="3">
+        <v>800</v>
+      </c>
+      <c r="I46" s="3">
         <v>900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2100</v>
       </c>
-      <c r="V46" s="3">
-        <v>100</v>
-      </c>
       <c r="W46" s="3">
         <v>100</v>
       </c>
@@ -3697,8 +3799,11 @@
       <c r="AD46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,22 +3888,25 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E48" s="3">
         <v>2700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2500</v>
-      </c>
-      <c r="G48" s="3">
-        <v>2400</v>
       </c>
       <c r="H48" s="3">
         <v>2400</v>
@@ -3807,34 +3915,34 @@
         <v>2400</v>
       </c>
       <c r="J48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K48" s="3">
         <v>2100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>700</v>
-      </c>
-      <c r="P48" s="3">
-        <v>600</v>
       </c>
       <c r="Q48" s="3">
         <v>600</v>
       </c>
       <c r="R48" s="3">
+        <v>600</v>
+      </c>
+      <c r="S48" s="3">
         <v>500</v>
-      </c>
-      <c r="S48" s="3">
-        <v>200</v>
       </c>
       <c r="T48" s="3">
         <v>200</v>
@@ -3843,34 +3951,37 @@
         <v>200</v>
       </c>
       <c r="V48" s="3">
-        <v>1900</v>
+        <v>200</v>
       </c>
       <c r="W48" s="3">
         <v>1900</v>
       </c>
       <c r="X48" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="Y48" s="3">
         <v>2000</v>
       </c>
       <c r="Z48" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="AA48" s="3">
         <v>2100</v>
       </c>
       <c r="AB48" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="AC48" s="3">
         <v>2200</v>
       </c>
       <c r="AD48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="AE48" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,55 +4422,58 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E54" s="3">
         <v>3100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3200</v>
-      </c>
-      <c r="G54" s="3">
-        <v>3300</v>
       </c>
       <c r="H54" s="3">
         <v>3300</v>
       </c>
       <c r="I54" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J54" s="3">
         <v>3400</v>
-      </c>
-      <c r="J54" s="3">
-        <v>3600</v>
       </c>
       <c r="K54" s="3">
         <v>3600</v>
       </c>
       <c r="L54" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="M54" s="3">
         <v>3400</v>
       </c>
       <c r="N54" s="3">
+        <v>3400</v>
+      </c>
+      <c r="O54" s="3">
         <v>3200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1500</v>
-      </c>
-      <c r="R54" s="3">
-        <v>1700</v>
       </c>
       <c r="S54" s="3">
         <v>1700</v>
@@ -4356,13 +4482,13 @@
         <v>1700</v>
       </c>
       <c r="U54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="V54" s="3">
         <v>2200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1900</v>
-      </c>
-      <c r="W54" s="3">
-        <v>2100</v>
       </c>
       <c r="X54" s="3">
         <v>2100</v>
@@ -4374,19 +4500,22 @@
         <v>2100</v>
       </c>
       <c r="AA54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="AB54" s="3">
         <v>2200</v>
-      </c>
-      <c r="AB54" s="3">
-        <v>2300</v>
       </c>
       <c r="AC54" s="3">
         <v>2300</v>
       </c>
       <c r="AD54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="AE54" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,20 +4579,21 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
@@ -4470,25 +4601,25 @@
         <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
+        <v>100</v>
+      </c>
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -4497,20 +4628,20 @@
         <v>0</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
       </c>
       <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
         <v>400</v>
       </c>
-      <c r="V57" s="3">
-        <v>0</v>
-      </c>
       <c r="W57" s="3">
         <v>0</v>
       </c>
@@ -4535,8 +4666,11 @@
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4621,8 +4755,11 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4630,7 +4767,7 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
@@ -4681,7 +4818,7 @@
         <v>100</v>
       </c>
       <c r="V59" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="W59" s="3">
         <v>500</v>
@@ -4696,19 +4833,22 @@
         <v>500</v>
       </c>
       <c r="AA59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AB59" s="3">
         <v>400</v>
       </c>
       <c r="AC59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AD59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4716,37 +4856,37 @@
         <v>200</v>
       </c>
       <c r="E60" s="3">
+        <v>200</v>
+      </c>
+      <c r="F60" s="3">
         <v>300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>200</v>
       </c>
-      <c r="G60" s="3">
-        <v>100</v>
-      </c>
       <c r="H60" s="3">
         <v>100</v>
       </c>
       <c r="I60" s="3">
+        <v>100</v>
+      </c>
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3">
-        <v>100</v>
-      </c>
       <c r="M60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
       </c>
       <c r="O60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>100</v>
@@ -4764,16 +4904,16 @@
         <v>100</v>
       </c>
       <c r="U60" s="3">
+        <v>100</v>
+      </c>
+      <c r="V60" s="3">
         <v>500</v>
-      </c>
-      <c r="V60" s="3">
-        <v>600</v>
       </c>
       <c r="W60" s="3">
         <v>600</v>
       </c>
       <c r="X60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Y60" s="3">
         <v>500</v>
@@ -4782,7 +4922,7 @@
         <v>500</v>
       </c>
       <c r="AA60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AB60" s="3">
         <v>400</v>
@@ -4791,10 +4931,13 @@
         <v>400</v>
       </c>
       <c r="AD60" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4879,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4944,17 +5090,17 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>4</v>
+      <c r="X62" s="3">
+        <v>0</v>
       </c>
       <c r="Y62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z62" s="3">
-        <v>0</v>
+      <c r="Z62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB62" s="3">
         <v>100</v>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,8 +5378,11 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5232,37 +5390,37 @@
         <v>200</v>
       </c>
       <c r="E66" s="3">
+        <v>200</v>
+      </c>
+      <c r="F66" s="3">
         <v>300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>200</v>
       </c>
-      <c r="G66" s="3">
-        <v>100</v>
-      </c>
       <c r="H66" s="3">
         <v>100</v>
       </c>
       <c r="I66" s="3">
+        <v>100</v>
+      </c>
+      <c r="J66" s="3">
         <v>200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>200</v>
       </c>
-      <c r="L66" s="3">
-        <v>100</v>
-      </c>
       <c r="M66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N66" s="3">
         <v>200</v>
       </c>
       <c r="O66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P66" s="3">
         <v>100</v>
@@ -5280,16 +5438,16 @@
         <v>100</v>
       </c>
       <c r="U66" s="3">
+        <v>100</v>
+      </c>
+      <c r="V66" s="3">
         <v>500</v>
-      </c>
-      <c r="V66" s="3">
-        <v>600</v>
       </c>
       <c r="W66" s="3">
         <v>600</v>
       </c>
       <c r="X66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Y66" s="3">
         <v>500</v>
@@ -5301,7 +5459,7 @@
         <v>500</v>
       </c>
       <c r="AB66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AC66" s="3">
         <v>400</v>
@@ -5309,8 +5467,11 @@
       <c r="AD66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-19700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-19600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-19500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-19400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-19300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-19200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-19100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-18400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-19000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-18900</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-19200</v>
       </c>
       <c r="O72" s="3">
         <v>-19200</v>
       </c>
       <c r="P72" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-19100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-19000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-20000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-19100</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-18400</v>
       </c>
       <c r="U72" s="3">
         <v>-18400</v>
       </c>
       <c r="V72" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="W72" s="3">
         <v>-17500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-18100</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-17800</v>
       </c>
       <c r="Y72" s="3">
         <v>-17800</v>
       </c>
       <c r="Z72" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="AA72" s="3">
         <v>-17700</v>
       </c>
       <c r="AB72" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="AC72" s="3">
         <v>-18200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-18100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,19 +6212,22 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E76" s="3">
         <v>2900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3000</v>
-      </c>
-      <c r="F76" s="3">
-        <v>3100</v>
       </c>
       <c r="G76" s="3">
         <v>3100</v>
@@ -6050,34 +6236,34 @@
         <v>3100</v>
       </c>
       <c r="I76" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J76" s="3">
         <v>3200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1400</v>
-      </c>
-      <c r="R76" s="3">
-        <v>1600</v>
       </c>
       <c r="S76" s="3">
         <v>1600</v>
@@ -6086,37 +6272,40 @@
         <v>1600</v>
       </c>
       <c r="U76" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V76" s="3">
         <v>1700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1500</v>
-      </c>
-      <c r="X76" s="3">
-        <v>1600</v>
       </c>
       <c r="Y76" s="3">
         <v>1600</v>
       </c>
       <c r="Z76" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="AA76" s="3">
         <v>1700</v>
       </c>
       <c r="AB76" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AC76" s="3">
         <v>1800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1900</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,114 +6390,120 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E80" s="2">
         <v>44985</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44895</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44804</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44712</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44620</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44530</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44439</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44347</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44255</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44165</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44074</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43982</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43890</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43799</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43708</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43616</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43524</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43434</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43343</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43251</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43159</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43069</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42978</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42886</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42794</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42704</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
-        <v>-100</v>
-      </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
@@ -6316,32 +6511,32 @@
         <v>-100</v>
       </c>
       <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
-        <v>-100</v>
-      </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
       <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
-        <v>-100</v>
-      </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
-        <v>-100</v>
-      </c>
       <c r="S81" s="3">
         <v>-100</v>
       </c>
@@ -6349,11 +6544,11 @@
         <v>-100</v>
       </c>
       <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
         <v>200</v>
       </c>
-      <c r="V81" s="3">
-        <v>-100</v>
-      </c>
       <c r="W81" s="3">
         <v>-100</v>
       </c>
@@ -6364,10 +6559,10 @@
         <v>-100</v>
       </c>
       <c r="Z81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB81" s="3">
         <v>-100</v>
@@ -6376,10 +6571,13 @@
         <v>-100</v>
       </c>
       <c r="AD81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6421,8 +6620,8 @@
       <c r="E83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,47 +7140,50 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>100</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
-        <v>100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-100</v>
-      </c>
       <c r="J89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
-        <v>-100</v>
-      </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
@@ -6974,28 +7191,28 @@
         <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U89" s="3">
         <v>-600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
         <v>0</v>
       </c>
       <c r="X89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z89" s="3">
         <v>0</v>
@@ -7010,10 +7227,13 @@
         <v>0</v>
       </c>
       <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7053,50 +7274,50 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-300</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
-        <v>100</v>
-      </c>
       <c r="O91" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
@@ -7116,22 +7337,25 @@
         <v>0</v>
       </c>
       <c r="Z91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AD91" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,22 +7529,25 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E94" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -7326,70 +7556,73 @@
         <v>200</v>
       </c>
       <c r="J94" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="K94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-1800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-400</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>2200</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,25 +8007,28 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -7791,20 +8037,20 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2000</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
@@ -7817,8 +8063,8 @@
       <c r="S100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
+      <c r="T100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
@@ -7850,8 +8096,11 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,8 +8185,11 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7945,16 +8197,16 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
@@ -7966,60 +8218,63 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N102" s="3">
         <v>-1500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
-        <v>-100</v>
-      </c>
       <c r="T102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U102" s="3">
         <v>-1300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2000</v>
       </c>
-      <c r="V102" s="3">
-        <v>-100</v>
-      </c>
       <c r="W102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="X102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Y102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Z102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AC102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AD102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GGTHF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GGTHF_QTR_FIN.xlsx
@@ -3734,7 +3734,7 @@
         <v>800</v>
       </c>
       <c r="I46" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="J46" s="3">
         <v>1000</v>
@@ -3906,16 +3906,16 @@
         <v>2600</v>
       </c>
       <c r="G48" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="H48" s="3">
         <v>2400</v>
       </c>
       <c r="I48" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="J48" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="K48" s="3">
         <v>2100</v>
@@ -4431,10 +4431,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E54" s="3">
         <v>3000</v>
-      </c>
-      <c r="E54" s="3">
-        <v>3100</v>
       </c>
       <c r="F54" s="3">
         <v>3300</v>
@@ -4443,13 +4443,13 @@
         <v>3200</v>
       </c>
       <c r="H54" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I54" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J54" s="3">
         <v>3300</v>
-      </c>
-      <c r="I54" s="3">
-        <v>3300</v>
-      </c>
-      <c r="J54" s="3">
-        <v>3400</v>
       </c>
       <c r="K54" s="3">
         <v>3600</v>
@@ -4767,7 +4767,7 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
@@ -5865,25 +5865,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-19800</v>
+        <v>-19400</v>
       </c>
       <c r="E72" s="3">
-        <v>-19700</v>
+        <v>-19300</v>
       </c>
       <c r="F72" s="3">
-        <v>-19600</v>
+        <v>-19200</v>
       </c>
       <c r="G72" s="3">
-        <v>-19500</v>
+        <v>-19100</v>
       </c>
       <c r="H72" s="3">
-        <v>-19400</v>
+        <v>-19000</v>
       </c>
       <c r="I72" s="3">
-        <v>-19300</v>
+        <v>-18900</v>
       </c>
       <c r="J72" s="3">
-        <v>-19200</v>
+        <v>-18800</v>
       </c>
       <c r="K72" s="3">
         <v>-19100</v>
@@ -6221,16 +6221,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E76" s="3">
         <v>2800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3000</v>
-      </c>
-      <c r="G76" s="3">
-        <v>3100</v>
       </c>
       <c r="H76" s="3">
         <v>3100</v>
